--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1049276.960151849</v>
+        <v>1043880.705334641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17544276.61892269</v>
+        <v>17544276.6189227</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9438528.731709808</v>
+        <v>9438528.731709806</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6331715.726177531</v>
+        <v>6331715.72617753</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>341.7602787893051</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>186.171386006806</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.7602787893051</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>341.7602787893051</v>
       </c>
       <c r="H11" t="n">
-        <v>10.88403678177881</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T11" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8.475159690333349</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>14.38283172245742</v>
+        <v>46.63974665957289</v>
       </c>
       <c r="T12" t="n">
         <v>170.4822098874773</v>
@@ -1511,13 +1511,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>39.09413725529571</v>
       </c>
       <c r="G13" t="n">
         <v>165.5873294507275</v>
       </c>
       <c r="H13" t="n">
-        <v>46.126695196502</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.6362815515982</v>
+        <v>183.6362815515983</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1615,13 +1615,13 @@
         <v>341.7602787893052</v>
       </c>
       <c r="E14" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>298.3722087065644</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T14" t="n">
-        <v>2.650244851055477</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>232.6339936753352</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>12.32763020112342</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T15" t="n">
-        <v>166.9826501505679</v>
+        <v>170.4822098874773</v>
       </c>
       <c r="U15" t="n">
         <v>207.8852796172697</v>
@@ -1751,7 +1751,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.21692362402814</v>
+        <v>138.2344707744799</v>
       </c>
       <c r="T16" t="n">
         <v>229.1567118763024</v>
       </c>
       <c r="U16" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>301.0224535576201</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.724782436844016</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>45.10812926962598</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6852892315554</v>
+        <v>93.56018850160484</v>
       </c>
       <c r="H18" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>8.475159690333349</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T18" t="n">
-        <v>170.4822098874773</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -1991,7 +1991,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>144.4766190456479</v>
+        <v>191.8759130823714</v>
       </c>
       <c r="U19" t="n">
         <v>282.530721081746</v>
@@ -2064,13 +2064,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I20" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>94.46538449262124</v>
       </c>
       <c r="X20" t="n">
-        <v>248.6555607579777</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.475159690333349</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>170.4822098874773</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>204.9062742874551</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -2228,7 +2228,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>89.18769116578696</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>23.56806116372844</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5873294507275</v>
+        <v>57.71080062784003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>309.5224388336487</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.25235609667671</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T23" t="n">
         <v>211.6610584811623</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6852892315554</v>
+        <v>117.6852892315559</v>
       </c>
       <c r="H24" t="n">
         <v>76.07674487096699</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.05425758338117</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.9088521171917</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>365.6591175623352</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2569,7 +2569,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>235.2741073656383</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2690,7 +2690,7 @@
         <v>170.4822098874773</v>
       </c>
       <c r="U27" t="n">
-        <v>207.8852796172696</v>
+        <v>207.8852796172701</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.05425758338117</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>183.6362815515982</v>
@@ -2769,19 +2769,19 @@
         <v>229.1567118763024</v>
       </c>
       <c r="U28" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>62.90293264617196</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>311.3817516277813</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>188.0764295613986</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>123.1874880556999</v>
       </c>
       <c r="G30" t="n">
         <v>117.6852892315554</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H31" t="n">
         <v>145.1734758482728</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T31" t="n">
-        <v>229.1567118763024</v>
+        <v>122.8520203081819</v>
       </c>
       <c r="U31" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>100.3316305091331</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>296.558746759598</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>398.5676219374912</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H32" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>110.1504735089439</v>
       </c>
       <c r="G34" t="n">
-        <v>22.59533553367588</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H34" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>102.1663867729557</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.1567118763024</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="H35" t="n">
         <v>298.3722087065644</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-2.025899448199198e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>91.390846906834</v>
       </c>
       <c r="X35" t="n">
-        <v>2.650244851055927</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8.475159690333349</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>25.2327554160364</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.4822098874773</v>
+        <v>155.0738825622905</v>
       </c>
       <c r="U36" t="n">
         <v>207.8852796172697</v>
@@ -3410,10 +3410,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>21.30384132612031</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.7790831169841</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U37" t="n">
         <v>282.530721081746</v>
@@ -3486,13 +3486,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="H38" t="n">
-        <v>48.00277682409229</v>
+        <v>125.7351043325928</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U38" t="n">
         <v>253.0196767335278</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>114.5631403957372</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.475159690333349</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.4822098874773</v>
+        <v>146.5987228719549</v>
       </c>
       <c r="U39" t="n">
         <v>207.8852796172697</v>
@@ -3647,10 +3647,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3663,25 +3663,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.4039479025011</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>147.7840202624103</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341.7602787893053</v>
+        <v>248.6555607579776</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>301.02245355762</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="F41" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="G41" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>126.3806283741483</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I42" t="n">
-        <v>8.475159690333349</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>170.4822098874773</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>78.13778212367778</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S43" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T43" t="n">
-        <v>184.1107615819985</v>
+        <v>59.04370376905359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>301.0224535576201</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="D44" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>248.6555607579776</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
@@ -4067,7 +4067,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>45.77747912410346</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.4822098874773</v>
+        <v>126.1799415354545</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>125.0287613498151</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>183.6362815515982</v>
       </c>
       <c r="T46" t="n">
-        <v>135.7437587510827</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U46" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.23065016316582</v>
+        <v>905.817532995484</v>
       </c>
       <c r="C11" t="n">
-        <v>91.23065016316582</v>
+        <v>905.817532995484</v>
       </c>
       <c r="D11" t="n">
-        <v>91.23065016316582</v>
+        <v>905.817532995484</v>
       </c>
       <c r="E11" t="n">
-        <v>91.23065016316582</v>
+        <v>717.7656279381042</v>
       </c>
       <c r="F11" t="n">
-        <v>91.23065016316582</v>
+        <v>372.5532251206243</v>
       </c>
       <c r="G11" t="n">
-        <v>91.23065016316582</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H11" t="n">
-        <v>80.2366736159145</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I11" t="n">
         <v>27.34082230314441</v>
@@ -5044,49 +5044,49 @@
         <v>95.19447492671543</v>
       </c>
       <c r="K11" t="n">
-        <v>229.8695478244281</v>
+        <v>229.8695478244279</v>
       </c>
       <c r="L11" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462634</v>
       </c>
       <c r="M11" t="n">
-        <v>654.1109890220052</v>
+        <v>654.110989022005</v>
       </c>
       <c r="N11" t="n">
-        <v>894.062003086166</v>
+        <v>894.0620030861658</v>
       </c>
       <c r="O11" t="n">
         <v>1111.973021646432</v>
       </c>
       <c r="P11" t="n">
-        <v>1275.529383879705</v>
+        <v>1275.529383879704</v>
       </c>
       <c r="Q11" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.04111515722</v>
       </c>
       <c r="R11" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.04111515722</v>
       </c>
       <c r="S11" t="n">
         <v>1251.029935812964</v>
       </c>
       <c r="T11" t="n">
-        <v>1037.230886842093</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="U11" t="n">
-        <v>781.6554557981258</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="V11" t="n">
-        <v>781.6554557981258</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="W11" t="n">
-        <v>436.4430529806458</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="X11" t="n">
-        <v>91.23065016316582</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.23065016316582</v>
+        <v>1251.029935812964</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>186.5558201070253</v>
+        <v>563.4045405375078</v>
       </c>
       <c r="C12" t="n">
-        <v>35.90158966711749</v>
+        <v>412.7503100976</v>
       </c>
       <c r="D12" t="n">
-        <v>35.90158966711749</v>
+        <v>282.6613427190804</v>
       </c>
       <c r="E12" t="n">
-        <v>35.90158966711749</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="F12" t="n">
-        <v>35.90158966711749</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="G12" t="n">
-        <v>35.90158966711749</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H12" t="n">
-        <v>35.90158966711749</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I12" t="n">
         <v>27.34082230314441</v>
       </c>
       <c r="J12" t="n">
-        <v>66.01359328150238</v>
+        <v>55.52239243964168</v>
       </c>
       <c r="K12" t="n">
-        <v>404.3562692829145</v>
+        <v>393.8650684410537</v>
       </c>
       <c r="L12" t="n">
-        <v>567.5398414923139</v>
+        <v>567.5398414923137</v>
       </c>
       <c r="M12" t="n">
-        <v>770.549337700803</v>
+        <v>770.5493377008027</v>
       </c>
       <c r="N12" t="n">
-        <v>988.2975103955574</v>
+        <v>988.297510395557</v>
       </c>
       <c r="O12" t="n">
-        <v>1173.051680973571</v>
+        <v>1173.05168097357</v>
       </c>
       <c r="P12" t="n">
         <v>1308.766698019695</v>
       </c>
       <c r="Q12" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.04111515722</v>
       </c>
       <c r="R12" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.04111515722</v>
       </c>
       <c r="S12" t="n">
-        <v>1352.513002306254</v>
+        <v>1319.93025994553</v>
       </c>
       <c r="T12" t="n">
-        <v>1180.30874989466</v>
+        <v>1147.726007533937</v>
       </c>
       <c r="U12" t="n">
-        <v>970.3236189681254</v>
+        <v>937.7408766074021</v>
       </c>
       <c r="V12" t="n">
-        <v>747.7836173391925</v>
+        <v>715.2008749784692</v>
       </c>
       <c r="W12" t="n">
-        <v>517.6663714724793</v>
+        <v>715.2008749784692</v>
       </c>
       <c r="X12" t="n">
-        <v>517.6663714724793</v>
+        <v>715.2008749784692</v>
       </c>
       <c r="Y12" t="n">
-        <v>338.3521545479866</v>
+        <v>715.2008749784692</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.3575382703842</v>
+        <v>389.72289166934</v>
       </c>
       <c r="C13" t="n">
-        <v>554.1524203363734</v>
+        <v>389.72289166934</v>
       </c>
       <c r="D13" t="n">
-        <v>398.5193072388882</v>
+        <v>234.0897785718548</v>
       </c>
       <c r="E13" t="n">
-        <v>398.5193072388882</v>
+        <v>234.0897785718548</v>
       </c>
       <c r="F13" t="n">
-        <v>241.1933724518611</v>
+        <v>194.600751041253</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9334437137525</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H13" t="n">
         <v>27.34082230314441</v>
@@ -5199,52 +5199,52 @@
         <v>27.34082230314441</v>
       </c>
       <c r="J13" t="n">
-        <v>27.34082230314441</v>
+        <v>27.6034962337607</v>
       </c>
       <c r="K13" t="n">
-        <v>57.52162409307878</v>
+        <v>57.78429802369504</v>
       </c>
       <c r="L13" t="n">
-        <v>366.5073570650327</v>
+        <v>366.7700309956489</v>
       </c>
       <c r="M13" t="n">
-        <v>496.6085706148563</v>
+        <v>705.112706997061</v>
       </c>
       <c r="N13" t="n">
-        <v>828.8991145837706</v>
+        <v>1037.403250965975</v>
       </c>
       <c r="O13" t="n">
-        <v>1129.322704634535</v>
+        <v>1337.826841016739</v>
       </c>
       <c r="P13" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.04111515722</v>
       </c>
       <c r="Q13" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.04111515722</v>
       </c>
       <c r="R13" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.04111515722</v>
       </c>
       <c r="S13" t="n">
-        <v>1181.549921670758</v>
+        <v>1181.549921670757</v>
       </c>
       <c r="T13" t="n">
-        <v>1181.549921670758</v>
+        <v>1181.549921670757</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.549921670758</v>
+        <v>896.165354921519</v>
       </c>
       <c r="V13" t="n">
-        <v>1181.549921670758</v>
+        <v>896.165354921519</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.549921670758</v>
+        <v>612.8349528526967</v>
       </c>
       <c r="X13" t="n">
-        <v>947.4695994537409</v>
+        <v>612.8349528526967</v>
       </c>
       <c r="Y13" t="n">
-        <v>724.3575382703842</v>
+        <v>389.72289166934</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1364.364100156155</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="C14" t="n">
-        <v>1364.364100156155</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="D14" t="n">
-        <v>1019.151697338675</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="E14" t="n">
-        <v>673.9392945211946</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="F14" t="n">
-        <v>673.9392945211946</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="G14" t="n">
         <v>328.7268917037146</v>
       </c>
       <c r="H14" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I14" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J14" t="n">
-        <v>95.19447492671549</v>
+        <v>95.19447492671543</v>
       </c>
       <c r="K14" t="n">
         <v>229.8695478244281</v>
       </c>
       <c r="L14" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M14" t="n">
         <v>654.1109890220055</v>
       </c>
       <c r="N14" t="n">
-        <v>894.062003086166</v>
+        <v>894.0620030861662</v>
       </c>
       <c r="O14" t="n">
-        <v>1111.973021646432</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P14" t="n">
         <v>1275.529383879705</v>
@@ -5305,25 +5305,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S14" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="T14" t="n">
-        <v>1364.364100156155</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="U14" t="n">
-        <v>1364.364100156155</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="V14" t="n">
-        <v>1364.364100156155</v>
+        <v>908.9231265164827</v>
       </c>
       <c r="W14" t="n">
-        <v>1364.364100156155</v>
+        <v>908.9231265164827</v>
       </c>
       <c r="X14" t="n">
-        <v>1364.364100156155</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="Y14" t="n">
-        <v>1364.364100156155</v>
+        <v>673.9392945211946</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>568.9623171275523</v>
+        <v>490.032973883023</v>
       </c>
       <c r="C15" t="n">
-        <v>418.3080866876446</v>
+        <v>490.032973883023</v>
       </c>
       <c r="D15" t="n">
-        <v>288.2191193091249</v>
+        <v>359.9440065045034</v>
       </c>
       <c r="E15" t="n">
-        <v>151.7726284200126</v>
+        <v>347.4918547861969</v>
       </c>
       <c r="F15" t="n">
-        <v>27.34082230314442</v>
+        <v>223.0600486693287</v>
       </c>
       <c r="G15" t="n">
-        <v>27.34082230314442</v>
+        <v>104.186019142505</v>
       </c>
       <c r="H15" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I15" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J15" t="n">
         <v>250.2573874193691</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2248155482936</v>
+        <v>355.6395614777684</v>
       </c>
       <c r="L15" t="n">
-        <v>512.408387757693</v>
+        <v>518.8231336871678</v>
       </c>
       <c r="M15" t="n">
-        <v>715.4178839661821</v>
+        <v>721.8326298956569</v>
       </c>
       <c r="N15" t="n">
-        <v>933.1660566609366</v>
+        <v>939.5808025904113</v>
       </c>
       <c r="O15" t="n">
-        <v>1117.92022723895</v>
+        <v>1124.334973168425</v>
       </c>
       <c r="P15" t="n">
-        <v>1253.635244285075</v>
+        <v>1260.049990214549</v>
       </c>
       <c r="Q15" t="n">
         <v>1318.324407352075</v>
@@ -5384,25 +5384,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S15" t="n">
-        <v>1367.041115157221</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="T15" t="n">
-        <v>1198.371771570789</v>
+        <v>1081.931685117233</v>
       </c>
       <c r="U15" t="n">
-        <v>988.3866406442537</v>
+        <v>871.9465541906975</v>
       </c>
       <c r="V15" t="n">
-        <v>988.3866406442537</v>
+        <v>871.9465541906975</v>
       </c>
       <c r="W15" t="n">
-        <v>758.2693947775406</v>
+        <v>641.8293083239844</v>
       </c>
       <c r="X15" t="n">
-        <v>568.9623171275523</v>
+        <v>641.8293083239844</v>
       </c>
       <c r="Y15" t="n">
-        <v>568.9623171275523</v>
+        <v>641.8293083239844</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="C16" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="D16" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="E16" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="F16" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="G16" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H16" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I16" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J16" t="n">
-        <v>66.45306417582707</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="K16" t="n">
-        <v>114.635443536077</v>
+        <v>57.52162409307878</v>
       </c>
       <c r="L16" t="n">
-        <v>423.621176508031</v>
+        <v>366.5073570650327</v>
       </c>
       <c r="M16" t="n">
-        <v>761.9638525094432</v>
+        <v>704.8500330664449</v>
       </c>
       <c r="N16" t="n">
-        <v>828.8991145837708</v>
+        <v>1037.140577035359</v>
       </c>
       <c r="O16" t="n">
-        <v>1129.322704634535</v>
+        <v>1337.564167086123</v>
       </c>
       <c r="P16" t="n">
         <v>1367.041115157221</v>
@@ -5463,25 +5463,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S16" t="n">
-        <v>1294.094727658203</v>
+        <v>1227.41033659714</v>
       </c>
       <c r="T16" t="n">
-        <v>1062.623301520523</v>
+        <v>995.9389104594608</v>
       </c>
       <c r="U16" t="n">
-        <v>777.2387347712851</v>
+        <v>995.9389104594608</v>
       </c>
       <c r="V16" t="n">
-        <v>511.2593895921093</v>
+        <v>729.959565280285</v>
       </c>
       <c r="W16" t="n">
-        <v>511.2593895921093</v>
+        <v>446.6291632114626</v>
       </c>
       <c r="X16" t="n">
-        <v>277.1790673750924</v>
+        <v>212.5488409944457</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.1790673750924</v>
+        <v>212.5488409944457</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>676.616309522261</v>
+        <v>334.5095002257792</v>
       </c>
       <c r="C17" t="n">
-        <v>676.616309522261</v>
+        <v>334.5095002257792</v>
       </c>
       <c r="D17" t="n">
-        <v>331.4039067047809</v>
+        <v>334.5095002257792</v>
       </c>
       <c r="E17" t="n">
-        <v>27.34082230314442</v>
+        <v>334.5095002257792</v>
       </c>
       <c r="F17" t="n">
-        <v>27.34082230314442</v>
+        <v>334.5095002257792</v>
       </c>
       <c r="G17" t="n">
-        <v>27.34082230314442</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H17" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I17" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J17" t="n">
-        <v>95.19447492671569</v>
+        <v>95.1944749267152</v>
       </c>
       <c r="K17" t="n">
-        <v>229.8695478244282</v>
+        <v>229.8695478244278</v>
       </c>
       <c r="L17" t="n">
-        <v>420.932029746264</v>
+        <v>420.9320297462636</v>
       </c>
       <c r="M17" t="n">
-        <v>654.1109890220055</v>
+        <v>654.1109890220051</v>
       </c>
       <c r="N17" t="n">
-        <v>894.0620030861664</v>
+        <v>894.062003086166</v>
       </c>
       <c r="O17" t="n">
-        <v>1111.973021646433</v>
+        <v>1111.973021646432</v>
       </c>
       <c r="P17" t="n">
         <v>1275.529383879705</v>
@@ -5551,16 +5551,16 @@
         <v>1367.041115157221</v>
       </c>
       <c r="V17" t="n">
-        <v>1367.041115157221</v>
+        <v>1024.934305860739</v>
       </c>
       <c r="W17" t="n">
-        <v>1021.828712339741</v>
+        <v>1024.934305860739</v>
       </c>
       <c r="X17" t="n">
-        <v>1021.828712339741</v>
+        <v>679.7219030432592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1021.828712339741</v>
+        <v>679.7219030432592</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>413.6310738614302</v>
+        <v>281.0610610177372</v>
       </c>
       <c r="C18" t="n">
-        <v>413.6310738614302</v>
+        <v>130.4068305778295</v>
       </c>
       <c r="D18" t="n">
-        <v>413.6310738614302</v>
+        <v>130.4068305778295</v>
       </c>
       <c r="E18" t="n">
-        <v>277.1845829723179</v>
+        <v>130.4068305778295</v>
       </c>
       <c r="F18" t="n">
-        <v>231.6208160333018</v>
+        <v>130.4068305778295</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7467865064781</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="H18" t="n">
-        <v>35.90158966711751</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="I18" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J18" t="n">
         <v>250.2573874193691</v>
@@ -5606,13 +5606,13 @@
         <v>715.417883966182</v>
       </c>
       <c r="N18" t="n">
-        <v>939.5808025904117</v>
+        <v>933.1660566609364</v>
       </c>
       <c r="O18" t="n">
-        <v>1124.334973168425</v>
+        <v>1117.92022723895</v>
       </c>
       <c r="P18" t="n">
-        <v>1260.04999021455</v>
+        <v>1253.635244285075</v>
       </c>
       <c r="Q18" t="n">
         <v>1318.324407352075</v>
@@ -5621,25 +5621,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S18" t="n">
-        <v>1367.041115157221</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="T18" t="n">
-        <v>1194.836862745628</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="U18" t="n">
-        <v>984.8517318190929</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="V18" t="n">
-        <v>984.8517318190929</v>
+        <v>1031.595935899893</v>
       </c>
       <c r="W18" t="n">
-        <v>754.7344859523798</v>
+        <v>801.4786900331796</v>
       </c>
       <c r="X18" t="n">
-        <v>565.4274083023915</v>
+        <v>612.1716123831914</v>
       </c>
       <c r="Y18" t="n">
-        <v>565.4274083023915</v>
+        <v>432.8573954586986</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.34082230314442</v>
+        <v>338.5327475414272</v>
       </c>
       <c r="C19" t="n">
-        <v>27.34082230314442</v>
+        <v>338.5327475414272</v>
       </c>
       <c r="D19" t="n">
-        <v>27.34082230314442</v>
+        <v>182.8996344439419</v>
       </c>
       <c r="E19" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="F19" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="G19" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H19" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I19" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J19" t="n">
-        <v>27.34082230314442</v>
+        <v>27.60349623376101</v>
       </c>
       <c r="K19" t="n">
-        <v>57.5216240930788</v>
+        <v>57.78429802369538</v>
       </c>
       <c r="L19" t="n">
-        <v>281.7599726024179</v>
+        <v>366.7700309956493</v>
       </c>
       <c r="M19" t="n">
-        <v>620.1026486038302</v>
+        <v>705.1127069970614</v>
       </c>
       <c r="N19" t="n">
-        <v>952.3931925727445</v>
+        <v>1037.403250965976</v>
       </c>
       <c r="O19" t="n">
-        <v>1252.816782623509</v>
+        <v>1337.82684101674</v>
       </c>
       <c r="P19" t="n">
-        <v>1282.031056763989</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="Q19" t="n">
         <v>1367.041115157221</v>
@@ -5703,22 +5703,22 @@
         <v>1367.041115157221</v>
       </c>
       <c r="T19" t="n">
-        <v>1221.105136323233</v>
+        <v>1173.227061538664</v>
       </c>
       <c r="U19" t="n">
-        <v>935.720569573995</v>
+        <v>887.8424947894254</v>
       </c>
       <c r="V19" t="n">
-        <v>669.7412243948193</v>
+        <v>621.8631496102496</v>
       </c>
       <c r="W19" t="n">
-        <v>669.7412243948193</v>
+        <v>338.5327475414272</v>
       </c>
       <c r="X19" t="n">
-        <v>435.6609021778023</v>
+        <v>338.5327475414272</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.5488409944457</v>
+        <v>338.5327475414272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>425.4490764333946</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="C20" t="n">
-        <v>425.4490764333946</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="D20" t="n">
-        <v>80.2366736159145</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="E20" t="n">
-        <v>80.2366736159145</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="F20" t="n">
-        <v>80.2366736159145</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="G20" t="n">
-        <v>80.2366736159145</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H20" t="n">
-        <v>80.2366736159145</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I20" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J20" t="n">
-        <v>95.19447492671544</v>
+        <v>95.19447492671543</v>
       </c>
       <c r="K20" t="n">
         <v>229.869547824428</v>
@@ -5785,19 +5785,19 @@
         <v>1367.041115157221</v>
       </c>
       <c r="U20" t="n">
-        <v>1367.041115157221</v>
+        <v>1111.465684113253</v>
       </c>
       <c r="V20" t="n">
-        <v>1367.041115157221</v>
+        <v>769.3588748167716</v>
       </c>
       <c r="W20" t="n">
-        <v>1367.041115157221</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="X20" t="n">
-        <v>1115.873882068355</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="Y20" t="n">
-        <v>770.6614792508747</v>
+        <v>673.9392945211946</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27.34082230314442</v>
+        <v>310.9876262238935</v>
       </c>
       <c r="C21" t="n">
-        <v>27.34082230314442</v>
+        <v>160.3333957839857</v>
       </c>
       <c r="D21" t="n">
-        <v>27.34082230314442</v>
+        <v>160.3333957839857</v>
       </c>
       <c r="E21" t="n">
-        <v>27.34082230314442</v>
+        <v>160.3333957839857</v>
       </c>
       <c r="F21" t="n">
-        <v>27.34082230314442</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="G21" t="n">
-        <v>27.34082230314442</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="H21" t="n">
-        <v>27.34082230314442</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="I21" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J21" t="n">
-        <v>55.52239243964173</v>
+        <v>250.2573874193691</v>
       </c>
       <c r="K21" t="n">
-        <v>355.6395614777688</v>
+        <v>349.2248155482935</v>
       </c>
       <c r="L21" t="n">
-        <v>518.8231336871683</v>
+        <v>512.4083877576929</v>
       </c>
       <c r="M21" t="n">
-        <v>721.8326298956573</v>
+        <v>715.417883966182</v>
       </c>
       <c r="N21" t="n">
-        <v>939.5808025904117</v>
+        <v>933.1660566609364</v>
       </c>
       <c r="O21" t="n">
-        <v>1124.334973168425</v>
+        <v>1117.92022723895</v>
       </c>
       <c r="P21" t="n">
-        <v>1260.04999021455</v>
+        <v>1253.635244285075</v>
       </c>
       <c r="Q21" t="n">
         <v>1318.324407352075</v>
@@ -5864,19 +5864,19 @@
         <v>1194.836862745628</v>
       </c>
       <c r="U21" t="n">
-        <v>984.8517318190929</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="V21" t="n">
-        <v>777.8756971852999</v>
+        <v>972.2968611166946</v>
       </c>
       <c r="W21" t="n">
-        <v>547.7584513185868</v>
+        <v>742.1796152499815</v>
       </c>
       <c r="X21" t="n">
-        <v>358.4513736685985</v>
+        <v>552.8725375999932</v>
       </c>
       <c r="Y21" t="n">
-        <v>179.1371567441058</v>
+        <v>462.7839606648548</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>478.9311786936177</v>
+        <v>724.3575382703842</v>
       </c>
       <c r="C22" t="n">
-        <v>478.9311786936177</v>
+        <v>554.1524203363734</v>
       </c>
       <c r="D22" t="n">
-        <v>455.1250563060132</v>
+        <v>398.5193072388882</v>
       </c>
       <c r="E22" t="n">
-        <v>455.1250563060132</v>
+        <v>242.9604950980907</v>
       </c>
       <c r="F22" t="n">
-        <v>297.7991215189861</v>
+        <v>85.63456031106364</v>
       </c>
       <c r="G22" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H22" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I22" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J22" t="n">
-        <v>66.45306417582705</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="K22" t="n">
-        <v>261.4889387084428</v>
+        <v>57.78429802369538</v>
       </c>
       <c r="L22" t="n">
-        <v>570.4746716803967</v>
+        <v>366.7700309956493</v>
       </c>
       <c r="M22" t="n">
-        <v>908.817347681809</v>
+        <v>705.1127069970614</v>
       </c>
       <c r="N22" t="n">
         <v>1037.403250965976</v>
@@ -5949,13 +5949,13 @@
         <v>1181.549921670758</v>
       </c>
       <c r="W22" t="n">
-        <v>898.2195196019359</v>
+        <v>1181.549921670758</v>
       </c>
       <c r="X22" t="n">
-        <v>664.1391973849189</v>
+        <v>947.4695994537409</v>
       </c>
       <c r="Y22" t="n">
-        <v>664.1391973849189</v>
+        <v>724.3575382703842</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>864.6630842929098</v>
+        <v>1161.956074545371</v>
       </c>
       <c r="C23" t="n">
-        <v>864.6630842929098</v>
+        <v>768.7805730483017</v>
       </c>
       <c r="D23" t="n">
-        <v>864.6630842929098</v>
+        <v>768.7805730483017</v>
       </c>
       <c r="E23" t="n">
-        <v>462.0795594094544</v>
+        <v>456.131644933505</v>
       </c>
       <c r="F23" t="n">
-        <v>45.18512093943218</v>
+        <v>456.131644933505</v>
       </c>
       <c r="G23" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H23" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I23" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J23" t="n">
         <v>374.1915860347539</v>
       </c>
       <c r="K23" t="n">
-        <v>508.8666589324665</v>
+        <v>933.3574576602273</v>
       </c>
       <c r="L23" t="n">
-        <v>699.9291408543022</v>
+        <v>1124.419939582063</v>
       </c>
       <c r="M23" t="n">
-        <v>933.1081001300438</v>
+        <v>1357.598898857805</v>
       </c>
       <c r="N23" t="n">
-        <v>1173.059114194205</v>
+        <v>1687.068822070768</v>
       </c>
       <c r="O23" t="n">
-        <v>1577.080569055878</v>
+        <v>1904.979840631035</v>
       </c>
       <c r="P23" t="n">
-        <v>1740.63693128915</v>
+        <v>2068.536202864307</v>
       </c>
       <c r="Q23" t="n">
         <v>2160.047934141823</v>
       </c>
       <c r="R23" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S23" t="n">
-        <v>2210.516293338602</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="T23" t="n">
-        <v>1996.717244367731</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="U23" t="n">
-        <v>1996.717244367731</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="V23" t="n">
-        <v>1654.61043507125</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="W23" t="n">
-        <v>1654.61043507125</v>
+        <v>1558.44678362477</v>
       </c>
       <c r="X23" t="n">
-        <v>1265.157830004307</v>
+        <v>1558.44678362477</v>
       </c>
       <c r="Y23" t="n">
-        <v>1265.157830004307</v>
+        <v>1161.956074545371</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>791.0866094939975</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C24" t="n">
-        <v>640.4323790540897</v>
+        <v>640.4323790540901</v>
       </c>
       <c r="D24" t="n">
-        <v>510.34341167557</v>
+        <v>510.3434116755705</v>
       </c>
       <c r="E24" t="n">
-        <v>373.8969207864577</v>
+        <v>373.8969207864582</v>
       </c>
       <c r="F24" t="n">
-        <v>249.4651146695895</v>
+        <v>249.46511466959</v>
       </c>
       <c r="G24" t="n">
         <v>130.5910851427658</v>
@@ -6065,37 +6065,37 @@
         <v>53.74588830340527</v>
       </c>
       <c r="I24" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J24" t="n">
-        <v>268.1016860556568</v>
+        <v>268.1016860556569</v>
       </c>
       <c r="K24" t="n">
-        <v>581.9934311821926</v>
+        <v>527.4288306968378</v>
       </c>
       <c r="L24" t="n">
-        <v>745.1770033915919</v>
+        <v>1086.594702322311</v>
       </c>
       <c r="M24" t="n">
-        <v>948.186499600081</v>
+        <v>1289.6041985308</v>
       </c>
       <c r="N24" t="n">
-        <v>1507.352371225554</v>
+        <v>1507.352371225555</v>
       </c>
       <c r="O24" t="n">
         <v>1692.106541803568</v>
       </c>
       <c r="P24" t="n">
-        <v>1827.821558849692</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q24" t="n">
         <v>2210.539339166463</v>
       </c>
       <c r="R24" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S24" t="n">
-        <v>2146.350869343214</v>
+        <v>2146.350869343215</v>
       </c>
       <c r="T24" t="n">
         <v>1974.146616931621</v>
@@ -6113,7 +6113,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y24" t="n">
-        <v>942.8829439349588</v>
+        <v>942.8829439349593</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>421.6554677518608</v>
+        <v>974.4059528883301</v>
       </c>
       <c r="C25" t="n">
-        <v>421.6554677518608</v>
+        <v>804.2008349543194</v>
       </c>
       <c r="D25" t="n">
-        <v>421.6554677518608</v>
+        <v>671.9696711995803</v>
       </c>
       <c r="E25" t="n">
-        <v>421.6554677518608</v>
+        <v>516.4108590587828</v>
       </c>
       <c r="F25" t="n">
-        <v>421.6554677518608</v>
+        <v>359.0849242717558</v>
       </c>
       <c r="G25" t="n">
-        <v>421.6554677518608</v>
+        <v>191.8249955336471</v>
       </c>
       <c r="H25" t="n">
-        <v>421.6554677518608</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I25" t="n">
-        <v>421.6554677518608</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J25" t="n">
-        <v>460.7677096245434</v>
+        <v>84.29736281211481</v>
       </c>
       <c r="K25" t="n">
-        <v>655.8035841571591</v>
+        <v>279.3332373447305</v>
       </c>
       <c r="L25" t="n">
-        <v>964.789317129113</v>
+        <v>588.3189703166845</v>
       </c>
       <c r="M25" t="n">
-        <v>1303.813444036013</v>
+        <v>927.3430972235844</v>
       </c>
       <c r="N25" t="n">
-        <v>1636.103988004927</v>
+        <v>1259.633641192499</v>
       </c>
       <c r="O25" t="n">
-        <v>1936.527578055691</v>
+        <v>1560.057231243263</v>
       </c>
       <c r="P25" t="n">
-        <v>2174.245988578377</v>
+        <v>1797.775641765949</v>
       </c>
       <c r="Q25" t="n">
-        <v>2259.256046971609</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="R25" t="n">
-        <v>2180.054539908341</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S25" t="n">
-        <v>1994.563346421878</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="T25" t="n">
-        <v>1763.091920284199</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="U25" t="n">
-        <v>1477.707353534961</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="V25" t="n">
-        <v>1211.728008355785</v>
+        <v>1616.806354980005</v>
       </c>
       <c r="W25" t="n">
-        <v>928.3976062869629</v>
+        <v>1616.806354980005</v>
       </c>
       <c r="X25" t="n">
-        <v>694.3172840699459</v>
+        <v>1382.726032762988</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.2052228865892</v>
+        <v>1159.613971579631</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>864.6630842929098</v>
+        <v>1644.962252289342</v>
       </c>
       <c r="C26" t="n">
-        <v>864.6630842929098</v>
+        <v>1644.962252289342</v>
       </c>
       <c r="D26" t="n">
-        <v>864.6630842929098</v>
+        <v>1275.609608286983</v>
       </c>
       <c r="E26" t="n">
-        <v>462.0795594094544</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="F26" t="n">
-        <v>45.18512093943218</v>
+        <v>456.131644933505</v>
       </c>
       <c r="G26" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H26" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I26" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J26" t="n">
-        <v>113.0387735630032</v>
+        <v>374.1915860347539</v>
       </c>
       <c r="K26" t="n">
-        <v>247.7138464607157</v>
+        <v>508.8666589324665</v>
       </c>
       <c r="L26" t="n">
-        <v>438.7763283825515</v>
+        <v>699.9291408543022</v>
       </c>
       <c r="M26" t="n">
-        <v>997.9422000080247</v>
+        <v>933.1081001300438</v>
       </c>
       <c r="N26" t="n">
-        <v>1557.108071633498</v>
+        <v>1173.059114194205</v>
       </c>
       <c r="O26" t="n">
-        <v>1904.979840631034</v>
+        <v>1390.970132754471</v>
       </c>
       <c r="P26" t="n">
-        <v>2068.536202864307</v>
+        <v>1740.63693128915</v>
       </c>
       <c r="Q26" t="n">
         <v>2160.047934141823</v>
       </c>
       <c r="R26" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="T26" t="n">
-        <v>2259.256046971609</v>
+        <v>2045.456998000739</v>
       </c>
       <c r="U26" t="n">
-        <v>2259.256046971609</v>
+        <v>2045.456998000739</v>
       </c>
       <c r="V26" t="n">
-        <v>2021.605433470964</v>
+        <v>2045.456998000739</v>
       </c>
       <c r="W26" t="n">
-        <v>1650.606398439252</v>
+        <v>2045.456998000739</v>
       </c>
       <c r="X26" t="n">
-        <v>1261.153793372309</v>
+        <v>2045.456998000739</v>
       </c>
       <c r="Y26" t="n">
-        <v>864.6630842929098</v>
+        <v>2045.456998000739</v>
       </c>
     </row>
     <row r="27">
@@ -6302,37 +6302,37 @@
         <v>53.74588830340527</v>
       </c>
       <c r="I27" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36669107592948</v>
+        <v>268.1016860556569</v>
       </c>
       <c r="K27" t="n">
-        <v>580.7742312470803</v>
+        <v>775.5092262268076</v>
       </c>
       <c r="L27" t="n">
-        <v>743.9578034564797</v>
+        <v>1036.626364454097</v>
       </c>
       <c r="M27" t="n">
-        <v>946.9672996649688</v>
+        <v>1239.635860662586</v>
       </c>
       <c r="N27" t="n">
-        <v>1164.715472359723</v>
+        <v>1457.38403335734</v>
       </c>
       <c r="O27" t="n">
-        <v>1349.469642937737</v>
+        <v>2016.549904982814</v>
       </c>
       <c r="P27" t="n">
-        <v>1876.538266654838</v>
+        <v>2152.264922028938</v>
       </c>
       <c r="Q27" t="n">
-        <v>2259.256046971609</v>
+        <v>2210.539339166463</v>
       </c>
       <c r="R27" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S27" t="n">
-        <v>2146.350869343214</v>
+        <v>2146.350869343215</v>
       </c>
       <c r="T27" t="n">
         <v>1974.146616931621</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>421.6554677518608</v>
+        <v>933.7463439707008</v>
       </c>
       <c r="C28" t="n">
-        <v>421.6554677518608</v>
+        <v>763.54122603669</v>
       </c>
       <c r="D28" t="n">
-        <v>421.6554677518608</v>
+        <v>607.9081129392048</v>
       </c>
       <c r="E28" t="n">
-        <v>421.6554677518608</v>
+        <v>452.3493007984072</v>
       </c>
       <c r="F28" t="n">
-        <v>421.6554677518608</v>
+        <v>295.0233660113802</v>
       </c>
       <c r="G28" t="n">
-        <v>421.6554677518608</v>
+        <v>295.0233660113802</v>
       </c>
       <c r="H28" t="n">
-        <v>421.6554677518608</v>
+        <v>148.3834914171652</v>
       </c>
       <c r="I28" t="n">
-        <v>421.6554677518608</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J28" t="n">
-        <v>460.7677096245434</v>
+        <v>84.29736281211481</v>
       </c>
       <c r="K28" t="n">
-        <v>655.8035841571591</v>
+        <v>279.3332373447305</v>
       </c>
       <c r="L28" t="n">
-        <v>964.789317129113</v>
+        <v>588.3189703166845</v>
       </c>
       <c r="M28" t="n">
-        <v>1303.813444036013</v>
+        <v>927.3430972235844</v>
       </c>
       <c r="N28" t="n">
-        <v>1636.103988004927</v>
+        <v>1259.633641192499</v>
       </c>
       <c r="O28" t="n">
-        <v>1936.527578055691</v>
+        <v>1560.057231243263</v>
       </c>
       <c r="P28" t="n">
-        <v>2174.245988578377</v>
+        <v>1797.775641765949</v>
       </c>
       <c r="Q28" t="n">
-        <v>2259.256046971609</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="R28" t="n">
-        <v>2180.054539908341</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S28" t="n">
-        <v>1994.563346421878</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="T28" t="n">
-        <v>1763.091920284199</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="U28" t="n">
-        <v>1477.707353534961</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="V28" t="n">
-        <v>1211.728008355785</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="W28" t="n">
-        <v>928.3976062869629</v>
+        <v>1182.492678466216</v>
       </c>
       <c r="X28" t="n">
-        <v>694.3172840699459</v>
+        <v>1118.954362662002</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.2052228865892</v>
+        <v>1118.954362662002</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>359.712142785676</v>
+        <v>1668.785109784052</v>
       </c>
       <c r="C29" t="n">
-        <v>45.18512093943218</v>
+        <v>1275.609608286983</v>
       </c>
       <c r="D29" t="n">
-        <v>45.18512093943218</v>
+        <v>1275.609608286983</v>
       </c>
       <c r="E29" t="n">
-        <v>45.18512093943218</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="F29" t="n">
-        <v>45.18512093943218</v>
+        <v>456.131644933505</v>
       </c>
       <c r="G29" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H29" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I29" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J29" t="n">
         <v>374.1915860347539</v>
       </c>
       <c r="K29" t="n">
-        <v>508.8666589324665</v>
+        <v>933.3574576602273</v>
       </c>
       <c r="L29" t="n">
-        <v>699.9291408543022</v>
+        <v>1313.146961560652</v>
       </c>
       <c r="M29" t="n">
-        <v>1119.21853643145</v>
+        <v>1546.325920836394</v>
       </c>
       <c r="N29" t="n">
-        <v>1359.169550495611</v>
+        <v>1786.276934900555</v>
       </c>
       <c r="O29" t="n">
-        <v>1577.080569055878</v>
+        <v>2004.187953460821</v>
       </c>
       <c r="P29" t="n">
-        <v>1740.63693128915</v>
+        <v>2167.744315694094</v>
       </c>
       <c r="Q29" t="n">
-        <v>2160.047934141823</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="R29" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="T29" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="U29" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="V29" t="n">
-        <v>1917.149237675128</v>
+        <v>2069.279855495449</v>
       </c>
       <c r="W29" t="n">
-        <v>1546.150202643415</v>
+        <v>2069.279855495449</v>
       </c>
       <c r="X29" t="n">
-        <v>1156.697597576472</v>
+        <v>2069.279855495449</v>
       </c>
       <c r="Y29" t="n">
-        <v>760.2068884970729</v>
+        <v>2069.279855495449</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>791.0866094939975</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C30" t="n">
-        <v>640.4323790540897</v>
+        <v>640.4323790540901</v>
       </c>
       <c r="D30" t="n">
-        <v>510.34341167557</v>
+        <v>510.3434116755705</v>
       </c>
       <c r="E30" t="n">
-        <v>373.8969207864577</v>
+        <v>373.8969207864582</v>
       </c>
       <c r="F30" t="n">
         <v>249.4651146695895</v>
@@ -6539,37 +6539,37 @@
         <v>53.74588830340527</v>
       </c>
       <c r="I30" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J30" t="n">
-        <v>268.1016860556568</v>
+        <v>268.1016860556569</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0691141845813</v>
+        <v>775.5092262268076</v>
       </c>
       <c r="L30" t="n">
-        <v>530.2526863939806</v>
+        <v>938.6927984362071</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.418558019454</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N30" t="n">
-        <v>1457.38403335734</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.549904982813</v>
+        <v>1544.204637917464</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.264922028938</v>
+        <v>1876.538266654839</v>
       </c>
       <c r="Q30" t="n">
-        <v>2210.539339166463</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="R30" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S30" t="n">
-        <v>2146.350869343214</v>
+        <v>2146.350869343215</v>
       </c>
       <c r="T30" t="n">
         <v>1974.146616931621</v>
@@ -6587,7 +6587,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y30" t="n">
-        <v>942.8829439349588</v>
+        <v>942.8829439349593</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>450.5821781521777</v>
+        <v>930.8011547747985</v>
       </c>
       <c r="C31" t="n">
-        <v>450.5821781521777</v>
+        <v>930.8011547747985</v>
       </c>
       <c r="D31" t="n">
-        <v>450.5821781521777</v>
+        <v>775.1680416773133</v>
       </c>
       <c r="E31" t="n">
-        <v>295.0233660113802</v>
+        <v>619.6092295365158</v>
       </c>
       <c r="F31" t="n">
-        <v>295.0233660113802</v>
+        <v>462.2832947494888</v>
       </c>
       <c r="G31" t="n">
         <v>295.0233660113802</v>
@@ -6618,7 +6618,7 @@
         <v>148.3834914171652</v>
       </c>
       <c r="I31" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J31" t="n">
         <v>84.29736281211481</v>
@@ -6645,28 +6645,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R31" t="n">
-        <v>1803.584193095913</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S31" t="n">
-        <v>1618.09299960945</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="T31" t="n">
-        <v>1386.621573471771</v>
+        <v>1573.201556866473</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.237006722532</v>
+        <v>1573.201556866473</v>
       </c>
       <c r="V31" t="n">
-        <v>835.2576615433567</v>
+        <v>1573.201556866473</v>
       </c>
       <c r="W31" t="n">
-        <v>551.9272594745344</v>
+        <v>1573.201556866473</v>
       </c>
       <c r="X31" t="n">
-        <v>450.5821781521777</v>
+        <v>1339.121234649456</v>
       </c>
       <c r="Y31" t="n">
-        <v>450.5821781521777</v>
+        <v>1116.0091734661</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.1647478526197</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="C32" t="n">
-        <v>749.1647478526197</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="D32" t="n">
-        <v>749.1647478526197</v>
+        <v>1629.891529000323</v>
       </c>
       <c r="E32" t="n">
-        <v>749.1647478526197</v>
+        <v>1227.308004116867</v>
       </c>
       <c r="F32" t="n">
-        <v>749.1647478526197</v>
+        <v>810.4135656468452</v>
       </c>
       <c r="G32" t="n">
-        <v>346.5711903400023</v>
+        <v>399.4670416527724</v>
       </c>
       <c r="H32" t="n">
-        <v>45.18512093943219</v>
+        <v>98.08097225220226</v>
       </c>
       <c r="I32" t="n">
         <v>45.18512093943219</v>
@@ -6703,49 +6703,49 @@
         <v>113.0387735630032</v>
       </c>
       <c r="K32" t="n">
-        <v>672.2046451884765</v>
+        <v>654.7729771053926</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.37051681395</v>
+        <v>1213.938848730866</v>
       </c>
       <c r="M32" t="n">
-        <v>1464.549476089692</v>
+        <v>1447.117808006607</v>
       </c>
       <c r="N32" t="n">
-        <v>1786.276934900555</v>
+        <v>1687.068822070768</v>
       </c>
       <c r="O32" t="n">
-        <v>2004.187953460821</v>
+        <v>1904.979840631035</v>
       </c>
       <c r="P32" t="n">
-        <v>2167.744315694094</v>
+        <v>2068.536202864307</v>
       </c>
       <c r="Q32" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141823</v>
       </c>
       <c r="R32" t="n">
         <v>2259.25604697161</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.25604697161</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="T32" t="n">
-        <v>2259.25604697161</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="U32" t="n">
-        <v>2259.25604697161</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="V32" t="n">
-        <v>1917.149237675128</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="W32" t="n">
-        <v>1546.150202643415</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="X32" t="n">
-        <v>1546.150202643415</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="Y32" t="n">
-        <v>1149.659493564017</v>
+        <v>1929.445818656483</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>791.0866094939976</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C33" t="n">
-        <v>640.4323790540898</v>
+        <v>640.43237905409</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3434116755701</v>
+        <v>510.3434116755702</v>
       </c>
       <c r="E33" t="n">
-        <v>373.8969207864578</v>
+        <v>373.8969207864579</v>
       </c>
       <c r="F33" t="n">
-        <v>249.4651146695896</v>
+        <v>249.4651146695895</v>
       </c>
       <c r="G33" t="n">
-        <v>130.5910851427659</v>
+        <v>130.5910851427658</v>
       </c>
       <c r="H33" t="n">
-        <v>53.74588830340527</v>
+        <v>53.74588830340525</v>
       </c>
       <c r="I33" t="n">
         <v>45.18512093943219</v>
       </c>
       <c r="J33" t="n">
-        <v>73.3666910759295</v>
+        <v>268.1016860556569</v>
       </c>
       <c r="K33" t="n">
-        <v>172.3341192048539</v>
+        <v>775.5092262268076</v>
       </c>
       <c r="L33" t="n">
-        <v>711.8605555481086</v>
+        <v>938.6927984362071</v>
       </c>
       <c r="M33" t="n">
-        <v>914.8700517565976</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N33" t="n">
-        <v>1132.618224451352</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O33" t="n">
-        <v>1317.372395029366</v>
+        <v>1544.204637917464</v>
       </c>
       <c r="P33" t="n">
-        <v>1876.538266654839</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q33" t="n">
-        <v>2259.25604697161</v>
+        <v>2210.539339166463</v>
       </c>
       <c r="R33" t="n">
         <v>2259.25604697161</v>
@@ -6824,7 +6824,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y33" t="n">
-        <v>942.8829439349589</v>
+        <v>942.8829439349593</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>317.8469372575174</v>
+        <v>582.5396378072479</v>
       </c>
       <c r="C34" t="n">
-        <v>317.8469372575174</v>
+        <v>582.5396378072479</v>
       </c>
       <c r="D34" t="n">
-        <v>317.8469372575174</v>
+        <v>426.9065247097627</v>
       </c>
       <c r="E34" t="n">
-        <v>317.8469372575174</v>
+        <v>426.9065247097627</v>
       </c>
       <c r="F34" t="n">
-        <v>317.8469372575174</v>
+        <v>315.6434201552738</v>
       </c>
       <c r="G34" t="n">
-        <v>295.0233660113802</v>
+        <v>148.3834914171652</v>
       </c>
       <c r="H34" t="n">
         <v>148.3834914171652</v>
@@ -6882,28 +6882,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R34" t="n">
-        <v>1803.584193095913</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S34" t="n">
-        <v>1618.09299960945</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="T34" t="n">
-        <v>1386.621573471771</v>
+        <v>1651.314274021501</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.237006722532</v>
+        <v>1365.929707272263</v>
       </c>
       <c r="V34" t="n">
-        <v>835.2576615433567</v>
+        <v>1099.950362093087</v>
       </c>
       <c r="W34" t="n">
-        <v>551.9272594745344</v>
+        <v>816.6199600242649</v>
       </c>
       <c r="X34" t="n">
-        <v>317.8469372575174</v>
+        <v>582.5396378072479</v>
       </c>
       <c r="Y34" t="n">
-        <v>317.8469372575174</v>
+        <v>582.5396378072479</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>673.9392945211949</v>
+        <v>1019.151697338676</v>
       </c>
       <c r="C35" t="n">
-        <v>328.7268917037146</v>
+        <v>1019.151697338676</v>
       </c>
       <c r="D35" t="n">
-        <v>328.7268917037146</v>
+        <v>1019.151697338676</v>
       </c>
       <c r="E35" t="n">
-        <v>328.7268917037146</v>
+        <v>1019.151697338676</v>
       </c>
       <c r="F35" t="n">
-        <v>328.7268917037146</v>
+        <v>673.9392945211952</v>
       </c>
       <c r="G35" t="n">
         <v>328.7268917037146</v>
       </c>
       <c r="H35" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I35" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J35" t="n">
-        <v>95.19447492671547</v>
+        <v>95.19447492671549</v>
       </c>
       <c r="K35" t="n">
         <v>229.869547824428</v>
@@ -6955,34 +6955,34 @@
         <v>1111.973021646433</v>
       </c>
       <c r="P35" t="n">
-        <v>1275.529383879706</v>
+        <v>1275.529383879705</v>
       </c>
       <c r="Q35" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="R35" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S35" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="T35" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="U35" t="n">
-        <v>1367.041115157222</v>
+        <v>1111.465684113256</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.041115157222</v>
+        <v>1111.465684113256</v>
       </c>
       <c r="W35" t="n">
-        <v>1367.041115157222</v>
+        <v>1019.151697338676</v>
       </c>
       <c r="X35" t="n">
-        <v>1364.364100156156</v>
+        <v>1019.151697338676</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.151697338675</v>
+        <v>1019.151697338676</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>506.7068525900778</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="C36" t="n">
-        <v>356.05262215017</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="D36" t="n">
-        <v>356.05262215017</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="E36" t="n">
-        <v>356.05262215017</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="F36" t="n">
-        <v>231.6208160333018</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="G36" t="n">
-        <v>112.7467865064781</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H36" t="n">
-        <v>35.90158966711753</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I36" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J36" t="n">
-        <v>55.52239243964175</v>
+        <v>55.52239243964176</v>
       </c>
       <c r="K36" t="n">
-        <v>235.0450581711116</v>
+        <v>154.4898205685662</v>
       </c>
       <c r="L36" t="n">
-        <v>398.228630380511</v>
+        <v>317.6733927779656</v>
       </c>
       <c r="M36" t="n">
-        <v>601.2381265890001</v>
+        <v>520.6828889864546</v>
       </c>
       <c r="N36" t="n">
-        <v>939.5808025904126</v>
+        <v>738.431061681209</v>
       </c>
       <c r="O36" t="n">
-        <v>1124.334973168426</v>
+        <v>923.1852322592225</v>
       </c>
       <c r="P36" t="n">
-        <v>1260.049990214551</v>
+        <v>1058.900249305347</v>
       </c>
       <c r="Q36" t="n">
-        <v>1318.324407352076</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R36" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S36" t="n">
-        <v>1341.553483423852</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="T36" t="n">
-        <v>1169.349231012259</v>
+        <v>1210.400829740768</v>
       </c>
       <c r="U36" t="n">
-        <v>959.3641000857239</v>
+        <v>1000.415698814233</v>
       </c>
       <c r="V36" t="n">
-        <v>736.8240984567909</v>
+        <v>777.8756971852999</v>
       </c>
       <c r="W36" t="n">
-        <v>506.7068525900778</v>
+        <v>547.7584513185868</v>
       </c>
       <c r="X36" t="n">
-        <v>506.7068525900778</v>
+        <v>358.4513736685985</v>
       </c>
       <c r="Y36" t="n">
-        <v>506.7068525900778</v>
+        <v>179.1371567441058</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>219.064971879701</v>
+        <v>175.6025224213102</v>
       </c>
       <c r="C37" t="n">
-        <v>48.85985394569022</v>
+        <v>175.6025224213102</v>
       </c>
       <c r="D37" t="n">
-        <v>27.34082230314445</v>
+        <v>175.6025224213102</v>
       </c>
       <c r="E37" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="F37" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="G37" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H37" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I37" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J37" t="n">
-        <v>66.45306417582708</v>
+        <v>66.45306417582709</v>
       </c>
       <c r="K37" t="n">
-        <v>261.4889387084428</v>
+        <v>96.63386596576147</v>
       </c>
       <c r="L37" t="n">
-        <v>325.0573857556825</v>
+        <v>405.6195989377154</v>
       </c>
       <c r="M37" t="n">
-        <v>663.400061757095</v>
+        <v>743.9622749391281</v>
       </c>
       <c r="N37" t="n">
-        <v>995.6906057260094</v>
+        <v>1076.252818908042</v>
       </c>
       <c r="O37" t="n">
-        <v>1044.312646241304</v>
+        <v>1129.322704634537</v>
       </c>
       <c r="P37" t="n">
-        <v>1282.031056763991</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="Q37" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R37" t="n">
-        <v>1287.839608093954</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S37" t="n">
-        <v>1287.839608093954</v>
+        <v>1181.54992167076</v>
       </c>
       <c r="T37" t="n">
-        <v>1287.839608093954</v>
+        <v>950.078495533081</v>
       </c>
       <c r="U37" t="n">
-        <v>1002.455041344716</v>
+        <v>664.6939287838426</v>
       </c>
       <c r="V37" t="n">
-        <v>736.4756961655403</v>
+        <v>398.7145836046668</v>
       </c>
       <c r="W37" t="n">
-        <v>453.1452940967179</v>
+        <v>398.7145836046668</v>
       </c>
       <c r="X37" t="n">
-        <v>219.064971879701</v>
+        <v>398.7145836046668</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.064971879701</v>
+        <v>175.6025224213102</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.0408784782935</v>
+        <v>552.4542323249024</v>
       </c>
       <c r="C38" t="n">
-        <v>421.0408784782935</v>
+        <v>552.4542323249024</v>
       </c>
       <c r="D38" t="n">
-        <v>75.82847566081341</v>
+        <v>552.4542323249024</v>
       </c>
       <c r="E38" t="n">
-        <v>75.82847566081341</v>
+        <v>552.4542323249024</v>
       </c>
       <c r="F38" t="n">
-        <v>75.82847566081341</v>
+        <v>552.4542323249024</v>
       </c>
       <c r="G38" t="n">
-        <v>75.82847566081341</v>
+        <v>207.2418295074224</v>
       </c>
       <c r="H38" t="n">
-        <v>27.34082230314442</v>
+        <v>80.2366736159145</v>
       </c>
       <c r="I38" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J38" t="n">
         <v>95.19447492671543</v>
@@ -7180,10 +7180,10 @@
         <v>229.869547824428</v>
       </c>
       <c r="L38" t="n">
-        <v>420.9320297462635</v>
+        <v>420.9320297462637</v>
       </c>
       <c r="M38" t="n">
-        <v>654.110989022005</v>
+        <v>654.1109890220052</v>
       </c>
       <c r="N38" t="n">
         <v>894.062003086166</v>
@@ -7204,22 +7204,22 @@
         <v>1367.041115157221</v>
       </c>
       <c r="T38" t="n">
-        <v>1367.041115157221</v>
+        <v>1153.24206618635</v>
       </c>
       <c r="U38" t="n">
-        <v>1111.465684113254</v>
+        <v>897.6666351423823</v>
       </c>
       <c r="V38" t="n">
-        <v>1111.465684113254</v>
+        <v>897.6666351423823</v>
       </c>
       <c r="W38" t="n">
-        <v>766.2532812957736</v>
+        <v>897.6666351423823</v>
       </c>
       <c r="X38" t="n">
-        <v>421.0408784782935</v>
+        <v>897.6666351423823</v>
       </c>
       <c r="Y38" t="n">
-        <v>421.0408784782935</v>
+        <v>552.4542323249024</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>267.4929722540905</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="C39" t="n">
-        <v>267.4929722540905</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="D39" t="n">
-        <v>267.4929722540905</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="E39" t="n">
-        <v>267.4929722540905</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="F39" t="n">
-        <v>143.0611661372224</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="G39" t="n">
-        <v>27.34082230314442</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="H39" t="n">
-        <v>27.34082230314442</v>
+        <v>35.90158966711749</v>
       </c>
       <c r="I39" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J39" t="n">
-        <v>55.52239243964173</v>
+        <v>55.52239243964172</v>
       </c>
       <c r="K39" t="n">
-        <v>154.4898205685661</v>
+        <v>393.8650684410538</v>
       </c>
       <c r="L39" t="n">
-        <v>317.6733927779655</v>
+        <v>557.0486406504533</v>
       </c>
       <c r="M39" t="n">
-        <v>520.6828889864546</v>
+        <v>760.0581368589424</v>
       </c>
       <c r="N39" t="n">
-        <v>738.431061681209</v>
+        <v>977.8063095536968</v>
       </c>
       <c r="O39" t="n">
-        <v>923.1852322592225</v>
+        <v>1162.56048013171</v>
       </c>
       <c r="P39" t="n">
-        <v>1260.04999021455</v>
+        <v>1298.275497177835</v>
       </c>
       <c r="Q39" t="n">
-        <v>1318.324407352075</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="R39" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S39" t="n">
-        <v>1254.135937528826</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T39" t="n">
-        <v>1081.931685117233</v>
+        <v>1218.961597104741</v>
       </c>
       <c r="U39" t="n">
-        <v>871.946554190698</v>
+        <v>1008.976466178206</v>
       </c>
       <c r="V39" t="n">
-        <v>649.406552561765</v>
+        <v>786.4364645492731</v>
       </c>
       <c r="W39" t="n">
-        <v>419.2893066950519</v>
+        <v>556.3192186825599</v>
       </c>
       <c r="X39" t="n">
-        <v>419.2893066950519</v>
+        <v>367.0121410325716</v>
       </c>
       <c r="Y39" t="n">
-        <v>419.2893066950519</v>
+        <v>187.6979241080788</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.34082230314442</v>
+        <v>896.4485297166812</v>
       </c>
       <c r="C40" t="n">
-        <v>27.34082230314442</v>
+        <v>726.2434117826704</v>
       </c>
       <c r="D40" t="n">
-        <v>27.34082230314442</v>
+        <v>726.2434117826704</v>
       </c>
       <c r="E40" t="n">
-        <v>27.34082230314442</v>
+        <v>570.6845996418729</v>
       </c>
       <c r="F40" t="n">
-        <v>27.34082230314442</v>
+        <v>413.3586648548458</v>
       </c>
       <c r="G40" t="n">
-        <v>27.34082230314442</v>
+        <v>246.0987361167372</v>
       </c>
       <c r="H40" t="n">
-        <v>27.34082230314442</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="I40" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J40" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="K40" t="n">
-        <v>222.3766968357602</v>
+        <v>57.78429802369538</v>
       </c>
       <c r="L40" t="n">
-        <v>531.3624298077141</v>
+        <v>366.7700309956493</v>
       </c>
       <c r="M40" t="n">
-        <v>869.7051058091263</v>
+        <v>705.1127069970614</v>
       </c>
       <c r="N40" t="n">
-        <v>936.6403678834538</v>
+        <v>1037.403250965976</v>
       </c>
       <c r="O40" t="n">
-        <v>1129.322704634535</v>
+        <v>1337.82684101674</v>
       </c>
       <c r="P40" t="n">
         <v>1367.041115157221</v>
@@ -7356,28 +7356,28 @@
         <v>1367.041115157221</v>
       </c>
       <c r="R40" t="n">
-        <v>1287.839608093953</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="S40" t="n">
-        <v>1102.34841460749</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T40" t="n">
-        <v>953.0716264636417</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="U40" t="n">
-        <v>953.0716264636417</v>
+        <v>1081.656548407982</v>
       </c>
       <c r="V40" t="n">
-        <v>953.0716264636417</v>
+        <v>1081.656548407982</v>
       </c>
       <c r="W40" t="n">
-        <v>669.7412243948193</v>
+        <v>1081.656548407982</v>
       </c>
       <c r="X40" t="n">
-        <v>435.6609021778023</v>
+        <v>1081.656548407982</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.5488409944457</v>
+        <v>1081.656548407982</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1021.828712339741</v>
+        <v>770.6614792508744</v>
       </c>
       <c r="C41" t="n">
-        <v>1021.828712339741</v>
+        <v>770.6614792508744</v>
       </c>
       <c r="D41" t="n">
-        <v>717.7656279381047</v>
+        <v>770.6614792508744</v>
       </c>
       <c r="E41" t="n">
-        <v>717.7656279381047</v>
+        <v>425.4490764333945</v>
       </c>
       <c r="F41" t="n">
-        <v>372.5532251206245</v>
+        <v>80.2366736159145</v>
       </c>
       <c r="G41" t="n">
-        <v>27.34082230314442</v>
+        <v>80.2366736159145</v>
       </c>
       <c r="H41" t="n">
-        <v>27.34082230314442</v>
+        <v>80.2366736159145</v>
       </c>
       <c r="I41" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J41" t="n">
         <v>95.19447492671543</v>
       </c>
       <c r="K41" t="n">
-        <v>229.8695478244279</v>
+        <v>229.869547824428</v>
       </c>
       <c r="L41" t="n">
         <v>420.9320297462638</v>
       </c>
       <c r="M41" t="n">
-        <v>654.1109890220052</v>
+        <v>654.1109890220054</v>
       </c>
       <c r="N41" t="n">
         <v>894.0620030861662</v>
@@ -7453,10 +7453,10 @@
         <v>1367.041115157221</v>
       </c>
       <c r="X41" t="n">
-        <v>1367.041115157221</v>
+        <v>1021.828712339741</v>
       </c>
       <c r="Y41" t="n">
-        <v>1367.041115157221</v>
+        <v>1021.828712339741</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>444.3019878634725</v>
+        <v>483.9383456753092</v>
       </c>
       <c r="C42" t="n">
-        <v>293.6477574235647</v>
+        <v>483.9383456753092</v>
       </c>
       <c r="D42" t="n">
-        <v>163.558790045045</v>
+        <v>483.9383456753092</v>
       </c>
       <c r="E42" t="n">
-        <v>35.90158966711751</v>
+        <v>347.4918547861969</v>
       </c>
       <c r="F42" t="n">
-        <v>35.90158966711751</v>
+        <v>223.0600486693287</v>
       </c>
       <c r="G42" t="n">
-        <v>35.90158966711751</v>
+        <v>104.186019142505</v>
       </c>
       <c r="H42" t="n">
-        <v>35.90158966711751</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I42" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J42" t="n">
-        <v>55.52239243964173</v>
+        <v>55.52239243964172</v>
       </c>
       <c r="K42" t="n">
-        <v>355.6395614777688</v>
+        <v>154.4898205685661</v>
       </c>
       <c r="L42" t="n">
-        <v>518.8231336871683</v>
+        <v>398.2286303805101</v>
       </c>
       <c r="M42" t="n">
-        <v>721.8326298956573</v>
+        <v>601.2381265889992</v>
       </c>
       <c r="N42" t="n">
-        <v>939.5808025904117</v>
+        <v>939.5808025904113</v>
       </c>
       <c r="O42" t="n">
         <v>1124.334973168425</v>
       </c>
       <c r="P42" t="n">
-        <v>1260.04999021455</v>
+        <v>1260.049990214549</v>
       </c>
       <c r="Q42" t="n">
         <v>1318.324407352075</v>
@@ -7523,19 +7523,19 @@
         <v>1194.836862745628</v>
       </c>
       <c r="U42" t="n">
-        <v>1194.836862745628</v>
+        <v>1115.909810095448</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.836862745628</v>
+        <v>893.369808466515</v>
       </c>
       <c r="W42" t="n">
-        <v>964.7196168789148</v>
+        <v>663.2525625998019</v>
       </c>
       <c r="X42" t="n">
-        <v>775.4125392289266</v>
+        <v>663.2525625998019</v>
       </c>
       <c r="Y42" t="n">
-        <v>596.0983223044339</v>
+        <v>483.9383456753092</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>353.1790533346405</v>
+        <v>757.3237430410256</v>
       </c>
       <c r="C43" t="n">
-        <v>182.9739354006297</v>
+        <v>757.3237430410256</v>
       </c>
       <c r="D43" t="n">
-        <v>27.34082230314442</v>
+        <v>757.3237430410256</v>
       </c>
       <c r="E43" t="n">
-        <v>27.34082230314442</v>
+        <v>601.7649309002281</v>
       </c>
       <c r="F43" t="n">
-        <v>27.34082230314442</v>
+        <v>444.438996113201</v>
       </c>
       <c r="G43" t="n">
-        <v>27.34082230314442</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="H43" t="n">
-        <v>27.34082230314442</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="I43" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J43" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="K43" t="n">
-        <v>57.78429802369573</v>
+        <v>57.78429802369538</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7700309956496</v>
+        <v>366.7700309956493</v>
       </c>
       <c r="M43" t="n">
-        <v>705.1127069970619</v>
+        <v>705.1127069970614</v>
       </c>
       <c r="N43" t="n">
         <v>1037.403250965976</v>
@@ -7593,28 +7593,28 @@
         <v>1367.041115157221</v>
       </c>
       <c r="R43" t="n">
-        <v>1367.041115157221</v>
+        <v>1287.839608093953</v>
       </c>
       <c r="S43" t="n">
-        <v>1181.549921670758</v>
+        <v>1102.34841460749</v>
       </c>
       <c r="T43" t="n">
-        <v>995.5794554263153</v>
+        <v>1042.708309790264</v>
       </c>
       <c r="U43" t="n">
-        <v>995.5794554263153</v>
+        <v>757.3237430410256</v>
       </c>
       <c r="V43" t="n">
-        <v>995.5794554263153</v>
+        <v>757.3237430410256</v>
       </c>
       <c r="W43" t="n">
-        <v>995.5794554263153</v>
+        <v>757.3237430410256</v>
       </c>
       <c r="X43" t="n">
-        <v>761.4991332092984</v>
+        <v>757.3237430410256</v>
       </c>
       <c r="Y43" t="n">
-        <v>538.3870720259417</v>
+        <v>757.3237430410256</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>676.616309522261</v>
+        <v>1021.828712339741</v>
       </c>
       <c r="C44" t="n">
-        <v>372.5532251206245</v>
+        <v>676.6163095222607</v>
       </c>
       <c r="D44" t="n">
-        <v>27.34082230314442</v>
+        <v>676.6163095222607</v>
       </c>
       <c r="E44" t="n">
-        <v>27.34082230314442</v>
+        <v>331.4039067047808</v>
       </c>
       <c r="F44" t="n">
-        <v>27.34082230314442</v>
+        <v>80.2366736159145</v>
       </c>
       <c r="G44" t="n">
-        <v>27.34082230314442</v>
+        <v>80.2366736159145</v>
       </c>
       <c r="H44" t="n">
-        <v>27.34082230314442</v>
+        <v>80.2366736159145</v>
       </c>
       <c r="I44" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J44" t="n">
-        <v>95.19447492671544</v>
+        <v>95.1944749267152</v>
       </c>
       <c r="K44" t="n">
-        <v>229.869547824428</v>
+        <v>229.8695478244278</v>
       </c>
       <c r="L44" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462636</v>
       </c>
       <c r="M44" t="n">
-        <v>654.1109890220054</v>
+        <v>654.1109890220051</v>
       </c>
       <c r="N44" t="n">
-        <v>894.0620030861662</v>
+        <v>894.062003086166</v>
       </c>
       <c r="O44" t="n">
-        <v>1111.973021646433</v>
+        <v>1111.973021646432</v>
       </c>
       <c r="P44" t="n">
         <v>1275.529383879705</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>490.770388913819</v>
+        <v>418.3080866876446</v>
       </c>
       <c r="C45" t="n">
-        <v>340.1161584739112</v>
+        <v>418.3080866876446</v>
       </c>
       <c r="D45" t="n">
-        <v>210.0271910953915</v>
+        <v>288.2191193091249</v>
       </c>
       <c r="E45" t="n">
-        <v>73.58070020627923</v>
+        <v>151.7726284200126</v>
       </c>
       <c r="F45" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="G45" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H45" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I45" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J45" t="n">
-        <v>250.2573874193691</v>
+        <v>55.52239243964172</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2248155482935</v>
+        <v>235.0450581711107</v>
       </c>
       <c r="L45" t="n">
-        <v>512.4083877576929</v>
+        <v>398.2286303805101</v>
       </c>
       <c r="M45" t="n">
-        <v>715.417883966182</v>
+        <v>601.2381265889992</v>
       </c>
       <c r="N45" t="n">
-        <v>933.1660566609364</v>
+        <v>939.5808025904113</v>
       </c>
       <c r="O45" t="n">
-        <v>1117.92022723895</v>
+        <v>1124.334973168425</v>
       </c>
       <c r="P45" t="n">
-        <v>1253.635244285075</v>
+        <v>1260.049990214549</v>
       </c>
       <c r="Q45" t="n">
-        <v>1367.041115157221</v>
+        <v>1318.324407352075</v>
       </c>
       <c r="R45" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S45" t="n">
-        <v>1254.135937528826</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T45" t="n">
-        <v>1081.931685117233</v>
+        <v>1239.586628757772</v>
       </c>
       <c r="U45" t="n">
-        <v>1081.931685117233</v>
+        <v>1239.586628757772</v>
       </c>
       <c r="V45" t="n">
-        <v>859.3916834883</v>
+        <v>1017.046627128839</v>
       </c>
       <c r="W45" t="n">
-        <v>859.3916834883</v>
+        <v>786.9293812621256</v>
       </c>
       <c r="X45" t="n">
-        <v>670.0846058383117</v>
+        <v>597.6223036121373</v>
       </c>
       <c r="Y45" t="n">
-        <v>490.770388913819</v>
+        <v>418.3080866876446</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.5391927808774</v>
+        <v>636.7966662527939</v>
       </c>
       <c r="C46" t="n">
-        <v>130.5391927808774</v>
+        <v>466.5915483187831</v>
       </c>
       <c r="D46" t="n">
-        <v>130.5391927808774</v>
+        <v>310.9584352212979</v>
       </c>
       <c r="E46" t="n">
-        <v>130.5391927808774</v>
+        <v>310.9584352212979</v>
       </c>
       <c r="F46" t="n">
-        <v>130.5391927808774</v>
+        <v>153.6325004342708</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H46" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I46" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="J46" t="n">
-        <v>66.45306417582705</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="K46" t="n">
-        <v>261.4889387084428</v>
+        <v>57.78429802369538</v>
       </c>
       <c r="L46" t="n">
-        <v>570.4746716803967</v>
+        <v>366.7700309956493</v>
       </c>
       <c r="M46" t="n">
-        <v>908.817347681809</v>
+        <v>705.1127069970614</v>
       </c>
       <c r="N46" t="n">
-        <v>975.7526097561365</v>
+        <v>1037.403250965976</v>
       </c>
       <c r="O46" t="n">
-        <v>1044.312646241303</v>
+        <v>1337.82684101674</v>
       </c>
       <c r="P46" t="n">
-        <v>1282.031056763989</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="Q46" t="n">
         <v>1367.041115157221</v>
@@ -7836,22 +7836,22 @@
         <v>1102.34841460749</v>
       </c>
       <c r="T46" t="n">
-        <v>965.233506778114</v>
+        <v>870.8769884698108</v>
       </c>
       <c r="U46" t="n">
-        <v>679.8489400288756</v>
+        <v>870.8769884698108</v>
       </c>
       <c r="V46" t="n">
-        <v>413.8695948496998</v>
+        <v>870.8769884698108</v>
       </c>
       <c r="W46" t="n">
-        <v>130.5391927808774</v>
+        <v>870.8769884698108</v>
       </c>
       <c r="X46" t="n">
-        <v>130.5391927808774</v>
+        <v>636.7966662527939</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.5391927808774</v>
+        <v>636.7966662527939</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.30740002227023</v>
+        <v>2.307400022270258</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>10.59717256753602</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>241.7931796691795</v>
+        <v>241.7931796691794</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>10.59717256753601</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.80500914288652</v>
+        <v>21.80500914288653</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.96522144053665</v>
+        <v>13.23054864317938</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>67.44182520350671</v>
+        <v>277.7867367707677</v>
       </c>
       <c r="N13" t="n">
         <v>268.0356382773604</v>
@@ -8865,10 +8865,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.06626921754312</v>
+        <v>16.06626921754314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.307400022270201</v>
+        <v>2.30740002227023</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>6.4795413429039</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.479541342903588</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053665</v>
       </c>
       <c r="K16" t="n">
-        <v>18.18341168718745</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>253.4605344048249</v>
@@ -9096,16 +9096,16 @@
         <v>277.7867367707678</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>0.2653272026429327</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.06626921754309</v>
+        <v>16.06626921754312</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>6.479541342904383</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.47954134290363</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.96522144053665</v>
+        <v>13.23054864317968</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>167.857115755719</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>277.7867367707679</v>
+        <v>277.7867367707678</v>
       </c>
       <c r="N19" t="n">
         <v>268.0356382773604</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754312</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>203.1815564739421</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.47954134290363</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053665</v>
       </c>
       <c r="K22" t="n">
-        <v>166.520275497658</v>
+        <v>0.2653272026430251</v>
       </c>
       <c r="L22" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>277.7867367707679</v>
+        <v>277.7867367707678</v>
       </c>
       <c r="N22" t="n">
-        <v>62.27337495943399</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
         <v>254.3449995307766</v>
@@ -9640,7 +9640,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>428.7785845734958</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>90.42314055434636</v>
       </c>
       <c r="O23" t="n">
-        <v>187.9903396983904</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9719,16 +9719,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>217.0952696945569</v>
+        <v>161.979511628542</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>399.982120622297</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>344.8663625562816</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,19 +9883,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>329.2797094441734</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>322.4392500619317</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>131.273485290172</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>187.9903396983909</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>98.92279395746442</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>378.1936374216767</v>
       </c>
       <c r="P27" t="n">
-        <v>395.3066734050273</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>428.7785845734958</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>190.6333555339285</v>
       </c>
       <c r="M29" t="n">
-        <v>187.9903396983902</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>2.30740002227023</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>359.7539145626103</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>151.7346491344763</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>378.1936374216765</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>198.60465827399</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288652</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>428.7785845734958</v>
+        <v>411.170839035027</v>
       </c>
       <c r="L32" t="n">
         <v>371.8216057612501</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>82.6024694411135</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2.30740002227023</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>380.1443072059143</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.728135938736</v>
+        <v>149.3958625112161</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2.30740002227023</v>
+        <v>2.307400022272255</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>81.36892687125807</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>121.812629602685</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>252.3903522367178</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288652</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.564285996022676</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>277.7867367707682</v>
+        <v>277.7867367707684</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>4.492772940605448</v>
       </c>
       <c r="P37" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754312</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>241.7931796691795</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>203.181556473942</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>10.59717256753595</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288652</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>12.96522144053665</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0.2653272026430251</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>277.7867367707679</v>
+        <v>277.7867367707678</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>145.5154507432183</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>16.06626921754312</v>
@@ -11141,16 +11141,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>203.1815564739421</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>81.36892687125717</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>121.8126296026845</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>12.96522144053665</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2653272026433626</v>
+        <v>0.2653272026430251</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>277.7867367707679</v>
+        <v>277.7867367707678</v>
       </c>
       <c r="N43" t="n">
         <v>268.0356382773604</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>81.36892687125716</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>121.8126296026845</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.68833710567797</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053665</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0.2653272026430251</v>
       </c>
       <c r="L46" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>277.7867367707679</v>
+        <v>277.7867367707678</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>20.13938986855734</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754312</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>54.72951946497784</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>212.3863036278149</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601694</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482704</v>
       </c>
       <c r="H11" t="n">
-        <v>287.4881719247856</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>52.36689279964239</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>25.52876589209023</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>43.79780022696855</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>76.07674487096699</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.475159690333356</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>97.39329412965368</v>
+        <v>65.13637919253823</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>116.6585381838611</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.04678065177077</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I13" t="n">
         <v>102.1663867729557</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.40949199263524</v>
+        <v>78.40949199263525</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>229.1567118763024</v>
       </c>
       <c r="U13" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>39.8264387061937</v>
+        <v>39.82643870619376</v>
       </c>
       <c r="E14" t="n">
-        <v>56.79741084531565</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>65.07677996482686</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>52.36689279964236</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.0108136301068</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U14" t="n">
         <v>253.0196767335278</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>152.9240853409385</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>122.7543957790977</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.475159690333342</v>
+        <v>8.475159690333349</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>3.499559736909375</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -23670,10 +23670,10 @@
         <v>165.5873294507275</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.40949199263522</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S16" t="n">
-        <v>111.4193579275701</v>
+        <v>45.40181077711838</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.72951946497761</v>
+        <v>54.72951946497773</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>39.82643870619364</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>97.53523607700083</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>406.8370587541321</v>
+        <v>401.1122763172881</v>
       </c>
       <c r="H17" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>52.36689279964237</v>
@@ -23791,13 +23791,13 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>25.52876589209012</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>43.79780022696855</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>78.07935878607353</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>24.12510072995059</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.4822098874773</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23943,7 +23943,7 @@
         <v>183.6362815515982</v>
       </c>
       <c r="T19" t="n">
-        <v>84.6800928306545</v>
+        <v>37.28079879393098</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.72951946497761</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>39.82643870619364</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>56.79741084531571</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -23986,10 +23986,10 @@
         <v>406.8370587541321</v>
       </c>
       <c r="H20" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>211.6610584811623</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>272.8236601887742</v>
       </c>
       <c r="X20" t="n">
-        <v>136.902518258296</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.76552319929959</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24059,7 +24059,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>117.6852892315554</v>
@@ -24068,7 +24068,7 @@
         <v>76.07674487096699</v>
       </c>
       <c r="I21" t="n">
-        <v>8.475159690333349</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,10 +24104,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V21" t="n">
-        <v>15.40832732518857</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>88.33338358946088</v>
       </c>
     </row>
     <row r="22">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>130.508720802782</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>107.8765288228875</v>
       </c>
       <c r="H22" t="n">
         <v>145.1734758482728</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>89.03525080097222</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>298.3722087065644</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.59871145413695</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>134.3016809210071</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>23.16792984931868</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>102.1663867729557</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>15.92759993316372</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>298.3722087065644</v>
@@ -24496,22 +24496,22 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T26" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0196767335278</v>
       </c>
       <c r="V26" t="n">
-        <v>103.4116338378784</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>134.3016809210071</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5873294507275</v>
       </c>
       <c r="H28" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>168.8365863486748</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>77.86199485431735</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>298.3722087065644</v>
@@ -24739,16 +24739,16 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>150.6093116421182</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>106.3046915681204</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>131.4078884857136</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>85.02797073590091</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>8.269436816640887</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.0196767335278</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25080,19 +25080,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>45.60220193021283</v>
       </c>
       <c r="G34" t="n">
-        <v>142.9919939170517</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>54.72951946497733</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>47.48346769279311</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25165,10 +25165,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601625</v>
       </c>
       <c r="G35" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482636</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>211.6610584811623</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>275.8981977745614</v>
       </c>
       <c r="X35" t="n">
-        <v>382.9078341652178</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.76552319929931</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
@@ -25244,16 +25244,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.475159690333349</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>86.5433704360747</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>15.40832732518675</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,13 +25314,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>132.7729406403901</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>7.224140902405452</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S37" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>39.82643870619364</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25405,13 +25405,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482693</v>
       </c>
       <c r="H38" t="n">
-        <v>250.3694318824722</v>
+        <v>172.6371043739716</v>
       </c>
       <c r="I38" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T38" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>25.52876589209012</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>43.79780022696843</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>50.76552319929971</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>3.122148835818285</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H39" t="n">
         <v>76.07674487096699</v>
       </c>
       <c r="I39" t="n">
-        <v>8.475159690333349</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>23.88348701552241</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.1734758482728</v>
+        <v>30.76952794577164</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T40" t="n">
-        <v>81.3726916138921</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U40" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.72951946497761</v>
+        <v>147.8342374963053</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>80.56426393787893</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>56.79741084531571</v>
       </c>
       <c r="F41" t="n">
-        <v>70.96521529601671</v>
+        <v>70.96521529601682</v>
       </c>
       <c r="G41" t="n">
-        <v>65.0767799648268</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H41" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I41" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>43.79780022696855</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>8.701397606072888</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.475159690333349</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8852796172697</v>
+        <v>129.7474974935919</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>45.04595029430385</v>
+        <v>170.1130081072488</v>
       </c>
       <c r="U43" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25851,10 +25851,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.72951946497761</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>88.22129292447863</v>
+        <v>47.48346769279351</v>
       </c>
       <c r="D44" t="n">
-        <v>39.82643870619364</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>56.79741084531571</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>164.0699333273444</v>
       </c>
       <c r="G44" t="n">
         <v>406.8370587541321</v>
@@ -25885,7 +25885,7 @@
         <v>298.3722087065644</v>
       </c>
       <c r="I44" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.76552319929959</v>
+        <v>50.76552319929971</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>77.41000893159605</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>117.6852892315554</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>44.30226835202274</v>
       </c>
       <c r="U45" t="n">
         <v>207.8852796172697</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5873294507275</v>
+        <v>40.55856810091242</v>
       </c>
       <c r="H46" t="n">
         <v>145.1734758482728</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>93.4129531252197</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401786.2397332444</v>
+        <v>401786.2397332442</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401786.2397332444</v>
+        <v>401786.2397332442</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>401786.2397332444</v>
+        <v>401786.2397332442</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>573023.0791925709</v>
+        <v>573023.0791925708</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>573023.079192571</v>
+        <v>573023.0791925706</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>573023.0791925708</v>
+        <v>573023.0791925705</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>573023.0791925709</v>
+        <v>573023.0791925708</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>401786.2397332446</v>
+        <v>401786.239733245</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>401786.2397332445</v>
+        <v>401786.2397332444</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>401786.2397332444</v>
+        <v>401786.2397332445</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>401786.2397332445</v>
+        <v>401786.2397332444</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>503717.8196812079</v>
+        <v>503717.8196812076</v>
       </c>
       <c r="C2" t="n">
-        <v>503717.8196812077</v>
+        <v>503717.8196812076</v>
       </c>
       <c r="D2" t="n">
-        <v>503717.8196812078</v>
+        <v>503717.8196812076</v>
       </c>
       <c r="E2" t="n">
+        <v>257598.9589613814</v>
+      </c>
+      <c r="F2" t="n">
         <v>257598.9589613813</v>
       </c>
-      <c r="F2" t="n">
-        <v>257598.9589613815</v>
-      </c>
       <c r="G2" t="n">
-        <v>257598.9589613814</v>
+        <v>257598.9589613813</v>
       </c>
       <c r="H2" t="n">
-        <v>257598.9589613814</v>
+        <v>257598.9589613812</v>
       </c>
       <c r="I2" t="n">
-        <v>339804.5760768906</v>
+        <v>339804.576076891</v>
       </c>
       <c r="J2" t="n">
         <v>339804.5760768907</v>
       </c>
       <c r="K2" t="n">
-        <v>339804.5760768907</v>
+        <v>339804.5760768909</v>
       </c>
       <c r="L2" t="n">
         <v>339804.5760768909</v>
@@ -26349,10 +26349,10 @@
         <v>257598.9589613815</v>
       </c>
       <c r="N2" t="n">
+        <v>257598.9589613813</v>
+      </c>
+      <c r="O2" t="n">
         <v>257598.9589613814</v>
-      </c>
-      <c r="O2" t="n">
-        <v>257598.9589613813</v>
       </c>
       <c r="P2" t="n">
         <v>257598.9589613814</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>540519.1432189246</v>
+        <v>540519.1432189245</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.608323018930336e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59314.67172075349</v>
+        <v>59314.67172075352</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29582.14604844192</v>
+        <v>29582.14604844193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>15684.15923474303</v>
       </c>
       <c r="F4" t="n">
-        <v>15684.15923474302</v>
+        <v>15684.15923474303</v>
       </c>
       <c r="G4" t="n">
-        <v>15684.15923474304</v>
+        <v>15684.15923474303</v>
       </c>
       <c r="H4" t="n">
-        <v>15684.15923474304</v>
+        <v>15684.15923474303</v>
       </c>
       <c r="I4" t="n">
-        <v>63792.30457250315</v>
+        <v>63792.30457250317</v>
       </c>
       <c r="J4" t="n">
+        <v>63792.30457250317</v>
+      </c>
+      <c r="K4" t="n">
         <v>63792.30457250316</v>
       </c>
-      <c r="K4" t="n">
-        <v>63792.30457250314</v>
-      </c>
       <c r="L4" t="n">
-        <v>63792.30457250316</v>
+        <v>63792.30457250317</v>
       </c>
       <c r="M4" t="n">
-        <v>15684.15923474311</v>
+        <v>15684.15923474315</v>
       </c>
       <c r="N4" t="n">
-        <v>15684.15923474304</v>
+        <v>15684.15923474303</v>
       </c>
       <c r="O4" t="n">
-        <v>15684.15923474304</v>
+        <v>15684.15923474303</v>
       </c>
       <c r="P4" t="n">
-        <v>15684.15923474304</v>
+        <v>15684.15923474303</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>32676.9137195739</v>
+      </c>
+      <c r="F5" t="n">
         <v>32676.91371957391</v>
       </c>
-      <c r="F5" t="n">
-        <v>32676.91371957392</v>
-      </c>
       <c r="G5" t="n">
-        <v>32676.91371957392</v>
+        <v>32676.91371957391</v>
       </c>
       <c r="H5" t="n">
-        <v>32676.91371957392</v>
+        <v>32676.91371957391</v>
       </c>
       <c r="I5" t="n">
-        <v>46238.58068315261</v>
+        <v>46238.58068315262</v>
       </c>
       <c r="J5" t="n">
-        <v>46238.58068315261</v>
+        <v>46238.58068315262</v>
       </c>
       <c r="K5" t="n">
-        <v>46238.58068315261</v>
+        <v>46238.58068315262</v>
       </c>
       <c r="L5" t="n">
         <v>46238.58068315262</v>
       </c>
       <c r="M5" t="n">
-        <v>32676.91371957394</v>
+        <v>32676.91371957395</v>
       </c>
       <c r="N5" t="n">
-        <v>32676.91371957392</v>
+        <v>32676.91371957391</v>
       </c>
       <c r="O5" t="n">
-        <v>32676.91371957392</v>
+        <v>32676.91371957391</v>
       </c>
       <c r="P5" t="n">
-        <v>32676.91371957392</v>
+        <v>32676.91371957391</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85032.81819128874</v>
+        <v>85028.48862350197</v>
       </c>
       <c r="C6" t="n">
-        <v>85032.8181912885</v>
+        <v>85028.48862350208</v>
       </c>
       <c r="D6" t="n">
-        <v>85032.81819128862</v>
+        <v>85028.48862350197</v>
       </c>
       <c r="E6" t="n">
-        <v>-331281.2572118603</v>
+        <v>-332164.5827107886</v>
       </c>
       <c r="F6" t="n">
-        <v>209237.8860070645</v>
+        <v>208354.5605081356</v>
       </c>
       <c r="G6" t="n">
-        <v>209237.8860070644</v>
+        <v>208354.5605081358</v>
       </c>
       <c r="H6" t="n">
-        <v>209237.8860070644</v>
+        <v>208354.5605081356</v>
       </c>
       <c r="I6" t="n">
-        <v>170459.0191004814</v>
+        <v>169869.2850912513</v>
       </c>
       <c r="J6" t="n">
-        <v>229773.690821235</v>
+        <v>229183.9568120046</v>
       </c>
       <c r="K6" t="n">
-        <v>229773.690821235</v>
+        <v>229183.9568120047</v>
       </c>
       <c r="L6" t="n">
-        <v>229773.6908212351</v>
+        <v>229183.9568120047</v>
       </c>
       <c r="M6" t="n">
-        <v>179655.7399586226</v>
+        <v>178772.4144596939</v>
       </c>
       <c r="N6" t="n">
-        <v>209237.8860070644</v>
+        <v>208354.5605081357</v>
       </c>
       <c r="O6" t="n">
-        <v>209237.8860070644</v>
+        <v>208354.5605081358</v>
       </c>
       <c r="P6" t="n">
-        <v>209237.8860070645</v>
+        <v>208354.5605081358</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>545.7747141827593</v>
+      </c>
+      <c r="F3" t="n">
         <v>545.7747141827595</v>
-      </c>
-      <c r="F3" t="n">
-        <v>545.7747141827596</v>
       </c>
       <c r="G3" t="n">
         <v>545.7747141827595</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893051</v>
       </c>
       <c r="F4" t="n">
         <v>341.7602787893052</v>
       </c>
       <c r="G4" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="H4" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="I4" t="n">
-        <v>564.8140117429023</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="J4" t="n">
-        <v>564.8140117429023</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="K4" t="n">
-        <v>564.8140117429023</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="L4" t="n">
         <v>564.8140117429024</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="O4" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="P4" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>545.7747141827595</v>
+        <v>545.7747141827593</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.7602787893051</v>
+        <v>341.760278789305</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5.613183511898869e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>223.0537329535971</v>
+        <v>223.0537329535972</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7602787893051</v>
+        <v>341.760278789305</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.613183511898869e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.19406920274476</v>
+        <v>2.194069202744759</v>
       </c>
       <c r="H11" t="n">
-        <v>22.47001122260978</v>
+        <v>22.47001122260977</v>
       </c>
       <c r="I11" t="n">
-        <v>84.58685293881744</v>
+        <v>84.58685293881743</v>
       </c>
       <c r="J11" t="n">
         <v>186.2188809964582</v>
       </c>
       <c r="K11" t="n">
-        <v>279.093830348644</v>
+        <v>279.0938303486439</v>
       </c>
       <c r="L11" t="n">
-        <v>346.240575712144</v>
+        <v>346.2405757121439</v>
       </c>
       <c r="M11" t="n">
-        <v>385.2593538964561</v>
+        <v>385.259353896456</v>
       </c>
       <c r="N11" t="n">
-        <v>391.4932530187547</v>
+        <v>391.4932530187546</v>
       </c>
       <c r="O11" t="n">
-        <v>369.6759773839615</v>
+        <v>369.6759773839614</v>
       </c>
       <c r="P11" t="n">
-        <v>315.5098939412002</v>
+        <v>315.5098939412001</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.9347906179034</v>
+        <v>236.9347906179033</v>
       </c>
       <c r="R11" t="n">
-        <v>137.8231995569157</v>
+        <v>137.8231995569156</v>
       </c>
       <c r="S11" t="n">
         <v>49.99735195754626</v>
       </c>
       <c r="T11" t="n">
-        <v>9.604537935015191</v>
+        <v>9.604537935015189</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1755255362195808</v>
+        <v>0.1755255362195807</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I12" t="n">
-        <v>40.41822175787417</v>
+        <v>40.41822175787416</v>
       </c>
       <c r="J12" t="n">
         <v>110.9106897944417</v>
@@ -31846,34 +31846,34 @@
         <v>189.564034453459</v>
       </c>
       <c r="L12" t="n">
-        <v>254.8922379775237</v>
+        <v>254.8922379775236</v>
       </c>
       <c r="M12" t="n">
-        <v>297.4472192296039</v>
+        <v>297.4472192296038</v>
       </c>
       <c r="N12" t="n">
-        <v>305.3197620407873</v>
+        <v>305.3197620407872</v>
       </c>
       <c r="O12" t="n">
         <v>279.3079332101146</v>
       </c>
       <c r="P12" t="n">
-        <v>224.169240623481</v>
+        <v>224.1692406234809</v>
       </c>
       <c r="Q12" t="n">
-        <v>149.8512007695758</v>
+        <v>149.8512007695757</v>
       </c>
       <c r="R12" t="n">
-        <v>72.88666843369006</v>
+        <v>72.88666843369005</v>
       </c>
       <c r="S12" t="n">
-        <v>21.80524447701873</v>
+        <v>21.80524447701872</v>
       </c>
       <c r="T12" t="n">
         <v>4.731763795603356</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07723227087491882</v>
+        <v>0.07723227087491881</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9841839108213694</v>
+        <v>0.9841839108213691</v>
       </c>
       <c r="H13" t="n">
-        <v>8.750289679848182</v>
+        <v>8.75028967984818</v>
       </c>
       <c r="I13" t="n">
         <v>29.59709433633719</v>
       </c>
       <c r="J13" t="n">
-        <v>69.58180249507082</v>
+        <v>69.5818024950708</v>
       </c>
       <c r="K13" t="n">
-        <v>114.3442761845191</v>
+        <v>114.344276184519</v>
       </c>
       <c r="L13" t="n">
         <v>146.3213061597516</v>
@@ -31931,28 +31931,28 @@
         <v>154.2753015844806</v>
       </c>
       <c r="N13" t="n">
-        <v>150.6069797350557</v>
+        <v>150.6069797350556</v>
       </c>
       <c r="O13" t="n">
         <v>139.1099222313696</v>
       </c>
       <c r="P13" t="n">
-        <v>119.0325704506136</v>
+        <v>119.0325704506135</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.41198184159667</v>
+        <v>82.41198184159666</v>
       </c>
       <c r="R13" t="n">
-        <v>44.25248748111356</v>
+        <v>44.25248748111355</v>
       </c>
       <c r="S13" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T13" t="n">
-        <v>4.20514943714585</v>
+        <v>4.205149437145849</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05368275877207476</v>
+        <v>0.05368275877207475</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,22 +31995,22 @@
         <v>22.47001122260978</v>
       </c>
       <c r="I14" t="n">
-        <v>84.58685293881746</v>
+        <v>84.58685293881744</v>
       </c>
       <c r="J14" t="n">
-        <v>186.2188809964583</v>
+        <v>186.2188809964582</v>
       </c>
       <c r="K14" t="n">
         <v>279.093830348644</v>
       </c>
       <c r="L14" t="n">
-        <v>346.2405757121441</v>
+        <v>346.240575712144</v>
       </c>
       <c r="M14" t="n">
-        <v>385.2593538964562</v>
+        <v>385.2593538964561</v>
       </c>
       <c r="N14" t="n">
-        <v>391.4932530187548</v>
+        <v>391.4932530187547</v>
       </c>
       <c r="O14" t="n">
         <v>369.6759773839615</v>
@@ -32025,10 +32025,10 @@
         <v>137.8231995569157</v>
       </c>
       <c r="S14" t="n">
-        <v>49.99735195754628</v>
+        <v>49.99735195754626</v>
       </c>
       <c r="T14" t="n">
-        <v>9.604537935015193</v>
+        <v>9.604537935015191</v>
       </c>
       <c r="U14" t="n">
         <v>0.1755255362195808</v>
@@ -32074,13 +32074,13 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I15" t="n">
-        <v>40.41822175787418</v>
+        <v>40.41822175787417</v>
       </c>
       <c r="J15" t="n">
-        <v>110.9106897944418</v>
+        <v>110.9106897944417</v>
       </c>
       <c r="K15" t="n">
-        <v>189.5640344534591</v>
+        <v>189.564034453459</v>
       </c>
       <c r="L15" t="n">
         <v>254.8922379775237</v>
@@ -32089,10 +32089,10 @@
         <v>297.4472192296039</v>
       </c>
       <c r="N15" t="n">
-        <v>305.3197620407874</v>
+        <v>305.3197620407873</v>
       </c>
       <c r="O15" t="n">
-        <v>279.3079332101147</v>
+        <v>279.3079332101146</v>
       </c>
       <c r="P15" t="n">
         <v>224.169240623481</v>
@@ -32101,16 +32101,16 @@
         <v>149.8512007695758</v>
       </c>
       <c r="R15" t="n">
-        <v>72.88666843369008</v>
+        <v>72.88666843369006</v>
       </c>
       <c r="S15" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T15" t="n">
-        <v>4.731763795603357</v>
+        <v>4.731763795603356</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07723227087491884</v>
+        <v>0.07723227087491882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9841839108213696</v>
+        <v>0.9841839108213694</v>
       </c>
       <c r="H16" t="n">
-        <v>8.750289679848184</v>
+        <v>8.750289679848182</v>
       </c>
       <c r="I16" t="n">
-        <v>29.5970943363372</v>
+        <v>29.59709433633719</v>
       </c>
       <c r="J16" t="n">
-        <v>69.58180249507083</v>
+        <v>69.58180249507082</v>
       </c>
       <c r="K16" t="n">
         <v>114.3442761845191</v>
       </c>
       <c r="L16" t="n">
-        <v>146.3213061597517</v>
+        <v>146.3213061597516</v>
       </c>
       <c r="M16" t="n">
-        <v>154.2753015844807</v>
+        <v>154.2753015844806</v>
       </c>
       <c r="N16" t="n">
         <v>150.6069797350557</v>
@@ -32177,19 +32177,19 @@
         <v>119.0325704506136</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.4119818415967</v>
+        <v>82.41198184159667</v>
       </c>
       <c r="R16" t="n">
-        <v>44.25248748111357</v>
+        <v>44.25248748111356</v>
       </c>
       <c r="S16" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T16" t="n">
-        <v>4.205149437145851</v>
+        <v>4.20514943714585</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05368275877207477</v>
+        <v>0.05368275877207476</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>68.53904305411214</v>
+        <v>68.53904305411211</v>
       </c>
       <c r="K11" t="n">
-        <v>136.0354271694066</v>
+        <v>136.0354271694065</v>
       </c>
       <c r="L11" t="n">
-        <v>192.9924059816523</v>
+        <v>192.9924059816522</v>
       </c>
       <c r="M11" t="n">
         <v>235.5343022987288</v>
       </c>
       <c r="N11" t="n">
-        <v>242.3747616809706</v>
+        <v>242.3747616809705</v>
       </c>
       <c r="O11" t="n">
-        <v>220.1121399598651</v>
+        <v>220.112139959865</v>
       </c>
       <c r="P11" t="n">
-        <v>165.208446700275</v>
+        <v>165.2084467002749</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.43609219951119</v>
+        <v>92.43609219951114</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.06340502864441</v>
+        <v>28.46623246110836</v>
       </c>
       <c r="K12" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893051</v>
       </c>
       <c r="L12" t="n">
-        <v>164.8318911206055</v>
+        <v>175.4290636881414</v>
       </c>
       <c r="M12" t="n">
-        <v>205.060097180292</v>
+        <v>205.0600971802918</v>
       </c>
       <c r="N12" t="n">
         <v>219.9476491866206</v>
       </c>
       <c r="O12" t="n">
-        <v>186.6203743212258</v>
+        <v>186.6203743212257</v>
       </c>
       <c r="P12" t="n">
         <v>137.0858758041663</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.86304761366178</v>
+        <v>58.86304761366175</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.2653272026427183</v>
       </c>
       <c r="K13" t="n">
-        <v>30.48565837367109</v>
+        <v>30.48565837367106</v>
       </c>
       <c r="L13" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M13" t="n">
-        <v>131.4153672220441</v>
+        <v>341.7602787893051</v>
       </c>
       <c r="N13" t="n">
         <v>335.6470141100144</v>
@@ -35585,7 +35585,7 @@
         <v>303.4581717684484</v>
       </c>
       <c r="P13" t="n">
-        <v>240.1196065885717</v>
+        <v>29.50936781866761</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>68.53904305411217</v>
+        <v>68.53904305411214</v>
       </c>
       <c r="K14" t="n">
-        <v>136.0354271694067</v>
+        <v>136.0354271694066</v>
       </c>
       <c r="L14" t="n">
-        <v>192.9924059816524</v>
+        <v>192.9924059816523</v>
       </c>
       <c r="M14" t="n">
-        <v>235.534302298729</v>
+        <v>235.5343022987288</v>
       </c>
       <c r="N14" t="n">
-        <v>242.3747616809707</v>
+        <v>242.3747616809706</v>
       </c>
       <c r="O14" t="n">
         <v>220.1121399598651</v>
@@ -35667,7 +35667,7 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.43609219951125</v>
+        <v>92.43609219951119</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>225.1682475921462</v>
+        <v>225.1682475921461</v>
       </c>
       <c r="K15" t="n">
-        <v>99.96709912012572</v>
+        <v>106.4466404630296</v>
       </c>
       <c r="L15" t="n">
         <v>164.8318911206055</v>
@@ -35737,19 +35737,19 @@
         <v>205.060097180292</v>
       </c>
       <c r="N15" t="n">
-        <v>219.9476491866207</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O15" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P15" t="n">
-        <v>137.0858758041664</v>
+        <v>137.0858758041663</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.34258895656541</v>
+        <v>58.86304761366178</v>
       </c>
       <c r="R15" t="n">
-        <v>49.20879576277397</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.50731502291176</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>48.66907006085857</v>
+        <v>30.48565837367109</v>
       </c>
       <c r="L16" t="n">
         <v>312.1068009817716</v>
@@ -35816,13 +35816,13 @@
         <v>341.7602787893052</v>
       </c>
       <c r="N16" t="n">
-        <v>67.61137583265412</v>
+        <v>335.6470141100144</v>
       </c>
       <c r="O16" t="n">
-        <v>303.4581717684485</v>
+        <v>303.4581717684484</v>
       </c>
       <c r="P16" t="n">
-        <v>240.1196065885718</v>
+        <v>29.77469502131057</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>205.060097180292</v>
       </c>
       <c r="N18" t="n">
-        <v>226.427190529525</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O18" t="n">
         <v>186.6203743212258</v>
@@ -35983,7 +35983,7 @@
         <v>137.0858758041663</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.86304761366178</v>
+        <v>65.34258895656541</v>
       </c>
       <c r="R18" t="n">
         <v>49.20879576277396</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.2653272026430269</v>
       </c>
       <c r="K19" t="n">
         <v>30.48565837367109</v>
       </c>
       <c r="L19" t="n">
-        <v>226.5033823326658</v>
+        <v>312.1068009817716</v>
       </c>
       <c r="M19" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="N19" t="n">
         <v>335.6470141100144</v>
@@ -36062,7 +36062,7 @@
         <v>29.50936781866764</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.86874585174915</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>28.46623246110839</v>
+        <v>225.1682475921461</v>
       </c>
       <c r="K21" t="n">
-        <v>303.1486555940677</v>
+        <v>99.96709912012567</v>
       </c>
       <c r="L21" t="n">
         <v>164.8318911206055</v>
@@ -36220,7 +36220,7 @@
         <v>137.0858758041663</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.86304761366178</v>
+        <v>65.34258895656541</v>
       </c>
       <c r="R21" t="n">
         <v>49.20879576277396</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.50731502291175</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>197.005933871329</v>
+        <v>30.75098557631411</v>
       </c>
       <c r="L22" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M22" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="N22" t="n">
-        <v>129.8847507920881</v>
+        <v>335.6470141100144</v>
       </c>
       <c r="O22" t="n">
         <v>303.4581717684484</v>
@@ -36360,7 +36360,7 @@
         <v>332.3297627225472</v>
       </c>
       <c r="K23" t="n">
-        <v>136.0354271694066</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="L23" t="n">
         <v>192.9924059816523</v>
@@ -36369,16 +36369,16 @@
         <v>235.5343022987288</v>
       </c>
       <c r="N23" t="n">
-        <v>242.3747616809706</v>
+        <v>332.7979022353169</v>
       </c>
       <c r="O23" t="n">
-        <v>408.1024796582555</v>
+        <v>220.1121399598651</v>
       </c>
       <c r="P23" t="n">
         <v>165.208446700275</v>
       </c>
       <c r="Q23" t="n">
-        <v>423.6474776289625</v>
+        <v>92.43609219951119</v>
       </c>
       <c r="R23" t="n">
         <v>100.2102149795824</v>
@@ -36439,16 +36439,16 @@
         <v>225.1682475921461</v>
       </c>
       <c r="K24" t="n">
-        <v>317.0623688146825</v>
+        <v>261.9466107486676</v>
       </c>
       <c r="L24" t="n">
-        <v>164.8318911206055</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="M24" t="n">
         <v>205.060097180292</v>
       </c>
       <c r="N24" t="n">
-        <v>564.8140117429023</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O24" t="n">
         <v>186.6203743212258</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>68.53904305411214</v>
+        <v>332.3297627225472</v>
       </c>
       <c r="K26" t="n">
         <v>136.0354271694066</v>
@@ -36603,19 +36603,19 @@
         <v>192.9924059816523</v>
       </c>
       <c r="M26" t="n">
-        <v>564.8140117429023</v>
+        <v>235.5343022987288</v>
       </c>
       <c r="N26" t="n">
-        <v>564.8140117429023</v>
+        <v>242.3747616809706</v>
       </c>
       <c r="O26" t="n">
-        <v>351.3856252500371</v>
+        <v>220.1121399598651</v>
       </c>
       <c r="P26" t="n">
-        <v>165.208446700275</v>
+        <v>353.1987863986658</v>
       </c>
       <c r="Q26" t="n">
-        <v>92.43609219951119</v>
+        <v>423.6474776289625</v>
       </c>
       <c r="R26" t="n">
         <v>100.2102149795824</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.46623246110839</v>
+        <v>225.1682475921461</v>
       </c>
       <c r="K27" t="n">
         <v>512.5328688597483</v>
       </c>
       <c r="L27" t="n">
-        <v>164.8318911206055</v>
+        <v>263.7546850780699</v>
       </c>
       <c r="M27" t="n">
         <v>205.060097180292</v>
@@ -36688,16 +36688,16 @@
         <v>219.9476491866206</v>
       </c>
       <c r="O27" t="n">
-        <v>186.6203743212258</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="P27" t="n">
-        <v>532.3925492091936</v>
+        <v>137.0858758041663</v>
       </c>
       <c r="Q27" t="n">
-        <v>386.5836164815864</v>
+        <v>58.86304761366178</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>332.3297627225472</v>
       </c>
       <c r="K29" t="n">
-        <v>136.0354271694066</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="L29" t="n">
-        <v>192.9924059816523</v>
+        <v>383.6257615155808</v>
       </c>
       <c r="M29" t="n">
-        <v>423.524641997119</v>
+        <v>235.5343022987288</v>
       </c>
       <c r="N29" t="n">
         <v>242.3747616809706</v>
@@ -36852,10 +36852,10 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q29" t="n">
-        <v>423.6474776289625</v>
+        <v>92.43609219951119</v>
       </c>
       <c r="R29" t="n">
-        <v>100.2102149795824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>225.1682475921461</v>
       </c>
       <c r="K30" t="n">
-        <v>99.96709912012567</v>
+        <v>512.5328688597483</v>
       </c>
       <c r="L30" t="n">
         <v>164.8318911206055</v>
       </c>
       <c r="M30" t="n">
-        <v>564.8140117429023</v>
+        <v>205.060097180292</v>
       </c>
       <c r="N30" t="n">
-        <v>371.6822983210969</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O30" t="n">
-        <v>564.8140117429023</v>
+        <v>186.6203743212258</v>
       </c>
       <c r="P30" t="n">
-        <v>137.0858758041663</v>
+        <v>335.6905340781563</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.86304761366178</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R30" t="n">
-        <v>49.20879576277396</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>68.53904305411214</v>
       </c>
       <c r="K32" t="n">
-        <v>564.8140117429024</v>
+        <v>547.2062662044336</v>
       </c>
       <c r="L32" t="n">
         <v>564.8140117429024</v>
@@ -37080,7 +37080,7 @@
         <v>235.5343022987288</v>
       </c>
       <c r="N32" t="n">
-        <v>324.9772311220841</v>
+        <v>242.3747616809706</v>
       </c>
       <c r="O32" t="n">
         <v>220.1121399598651</v>
@@ -37092,7 +37092,7 @@
         <v>92.43609219951119</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>28.46623246110839</v>
+        <v>225.1682475921461</v>
       </c>
       <c r="K33" t="n">
-        <v>99.96709912012567</v>
+        <v>512.5328688597483</v>
       </c>
       <c r="L33" t="n">
-        <v>544.9761983265198</v>
+        <v>164.8318911206055</v>
       </c>
       <c r="M33" t="n">
         <v>205.060097180292</v>
@@ -37165,13 +37165,13 @@
         <v>186.6203743212258</v>
       </c>
       <c r="P33" t="n">
-        <v>564.8140117429024</v>
+        <v>286.4817383153824</v>
       </c>
       <c r="Q33" t="n">
         <v>386.5836164815864</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>220.1121399598651</v>
       </c>
       <c r="P35" t="n">
-        <v>165.2084467002764</v>
+        <v>165.208446700275</v>
       </c>
       <c r="Q35" t="n">
         <v>92.43609219951119</v>
@@ -37387,7 +37387,7 @@
         <v>28.46623246110839</v>
       </c>
       <c r="K36" t="n">
-        <v>181.3360259913837</v>
+        <v>99.96709912012567</v>
       </c>
       <c r="L36" t="n">
         <v>164.8318911206055</v>
@@ -37396,7 +37396,7 @@
         <v>205.060097180292</v>
       </c>
       <c r="N36" t="n">
-        <v>341.7602787893056</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O36" t="n">
         <v>186.6203743212258</v>
@@ -37405,10 +37405,10 @@
         <v>137.0858758041663</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.86304761366178</v>
+        <v>311.2533998503796</v>
       </c>
       <c r="R36" t="n">
-        <v>49.20879576277396</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>39.50731502291175</v>
       </c>
       <c r="K37" t="n">
-        <v>197.005933871329</v>
+        <v>30.48565837367109</v>
       </c>
       <c r="L37" t="n">
-        <v>64.21055257296941</v>
+        <v>312.1068009817716</v>
       </c>
       <c r="M37" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="N37" t="n">
         <v>335.6470141100144</v>
       </c>
       <c r="O37" t="n">
-        <v>49.1131722376718</v>
+        <v>53.60594517827725</v>
       </c>
       <c r="P37" t="n">
         <v>240.1196065885717</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.86874585174915</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>28.46623246110839</v>
       </c>
       <c r="K39" t="n">
-        <v>99.96709912012567</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="L39" t="n">
         <v>164.8318911206055</v>
@@ -37639,13 +37639,13 @@
         <v>186.6203743212258</v>
       </c>
       <c r="P39" t="n">
-        <v>340.2674322781083</v>
+        <v>137.0858758041663</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.86304761366178</v>
+        <v>69.46022018119773</v>
       </c>
       <c r="R39" t="n">
-        <v>49.20879576277396</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>197.005933871329</v>
+        <v>30.75098557631411</v>
       </c>
       <c r="L40" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M40" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="N40" t="n">
-        <v>67.61137583265409</v>
+        <v>335.6470141100144</v>
       </c>
       <c r="O40" t="n">
-        <v>194.6286229808902</v>
+        <v>303.4581717684484</v>
       </c>
       <c r="P40" t="n">
-        <v>240.1196065885717</v>
+        <v>29.50936781866764</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>28.46623246110839</v>
       </c>
       <c r="K42" t="n">
-        <v>303.1486555940677</v>
+        <v>99.96709912012567</v>
       </c>
       <c r="L42" t="n">
-        <v>164.8318911206055</v>
+        <v>246.2008179918626</v>
       </c>
       <c r="M42" t="n">
         <v>205.060097180292</v>
       </c>
       <c r="N42" t="n">
-        <v>219.9476491866206</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="O42" t="n">
         <v>186.6203743212258</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>30.75098557631445</v>
+        <v>30.75098557631411</v>
       </c>
       <c r="L43" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M43" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="N43" t="n">
         <v>335.6470141100144</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>225.1682475921461</v>
+        <v>28.46623246110839</v>
       </c>
       <c r="K45" t="n">
-        <v>99.96709912012567</v>
+        <v>181.3360259913828</v>
       </c>
       <c r="L45" t="n">
         <v>164.8318911206055</v>
@@ -38107,7 +38107,7 @@
         <v>205.060097180292</v>
       </c>
       <c r="N45" t="n">
-        <v>219.9476491866206</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="O45" t="n">
         <v>186.6203743212258</v>
@@ -38116,10 +38116,10 @@
         <v>137.0858758041663</v>
       </c>
       <c r="Q45" t="n">
-        <v>114.5513847193398</v>
+        <v>58.86304761366178</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>39.50731502291175</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>197.005933871329</v>
+        <v>30.75098557631411</v>
       </c>
       <c r="L46" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M46" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="N46" t="n">
-        <v>67.61137583265409</v>
+        <v>335.6470141100144</v>
       </c>
       <c r="O46" t="n">
-        <v>69.25256210622913</v>
+        <v>303.4581717684484</v>
       </c>
       <c r="P46" t="n">
-        <v>240.1196065885717</v>
+        <v>29.50936781866764</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.86874585174915</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
